--- a/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="168">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -975,7 +975,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1633,11 +1633,21 @@
       <c r="J7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
+      <c r="K7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
@@ -1671,7 +1681,7 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>20</v>
@@ -1685,12 +1695,22 @@
       <c r="J8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
+      <c r="K8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="38"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
@@ -1719,11 +1739,11 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>20</v>
@@ -1737,11 +1757,21 @@
       <c r="J9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="K9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="39"/>
@@ -1771,11 +1801,11 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>20</v>
@@ -1789,11 +1819,21 @@
       <c r="J10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
+      <c r="K10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
@@ -1823,11 +1863,11 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>20</v>
@@ -1841,11 +1881,21 @@
       <c r="J11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
+      <c r="K11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
@@ -1875,11 +1925,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>25</v>
@@ -1893,11 +1943,21 @@
       <c r="J12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
+      <c r="K12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
@@ -1927,12 +1987,12 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="36">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F13" s="36">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="G13" s="37" t="s">
         <v>25</v>
       </c>
@@ -1945,11 +2005,21 @@
       <c r="J13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
+      <c r="K13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
@@ -1983,7 +2053,7 @@
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>20</v>
@@ -1997,11 +2067,21 @@
       <c r="J14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
+      <c r="K14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="39"/>
@@ -2031,11 +2111,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>20</v>
@@ -2049,11 +2129,21 @@
       <c r="J15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
+      <c r="K15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39"/>
@@ -2083,11 +2173,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>25</v>
@@ -2101,11 +2191,21 @@
       <c r="J16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
+      <c r="K16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39"/>
@@ -2139,7 +2239,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>20</v>
@@ -2153,11 +2253,21 @@
       <c r="J17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
+      <c r="K17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
@@ -2187,11 +2297,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>20</v>
@@ -2205,11 +2315,21 @@
       <c r="J18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
+      <c r="K18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
       <c r="R18" s="39"/>
@@ -2239,11 +2359,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>25</v>
@@ -2257,11 +2377,21 @@
       <c r="J19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
+      <c r="K19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
       <c r="R19" s="39"/>
@@ -2295,7 +2425,7 @@
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>20</v>
@@ -2309,11 +2439,21 @@
       <c r="J20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
+      <c r="K20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
       <c r="R20" s="39"/>
@@ -2343,11 +2483,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>20</v>
@@ -2361,11 +2501,21 @@
       <c r="J21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
+      <c r="K21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
@@ -2395,11 +2545,11 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2413,11 +2563,21 @@
       <c r="J22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
+      <c r="K22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
       <c r="R22" s="39"/>
@@ -2451,7 +2611,7 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>25</v>
@@ -2465,11 +2625,21 @@
       <c r="J23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
+      <c r="K23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
@@ -2499,11 +2669,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -2517,11 +2687,21 @@
       <c r="J24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
+      <c r="K24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
@@ -2551,11 +2731,11 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -2569,11 +2749,21 @@
       <c r="J25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
+      <c r="K25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
@@ -2603,11 +2793,11 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -2621,11 +2811,21 @@
       <c r="J26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
+      <c r="K26" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P26" s="39"/>
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
@@ -2659,7 +2859,7 @@
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>25</v>
@@ -2673,11 +2873,21 @@
       <c r="J27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
+      <c r="K27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
       <c r="R27" s="39"/>
@@ -2707,11 +2917,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>25</v>
@@ -2725,11 +2935,21 @@
       <c r="J28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
+      <c r="K28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
       <c r="R28" s="39"/>
@@ -2759,11 +2979,11 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -2777,11 +2997,21 @@
       <c r="J29" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
+      <c r="K29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
       <c r="R29" s="39"/>
@@ -2815,7 +3045,7 @@
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>25</v>
@@ -2829,11 +3059,21 @@
       <c r="J30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
+      <c r="K30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
@@ -2867,7 +3107,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>20</v>
@@ -2881,11 +3121,21 @@
       <c r="J31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
+      <c r="K31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
       <c r="R31" s="39"/>
@@ -2915,11 +3165,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>25</v>
@@ -2933,11 +3183,21 @@
       <c r="J32" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
+      <c r="K32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
       <c r="R32" s="39"/>
@@ -2967,11 +3227,11 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>25</v>
@@ -2985,11 +3245,21 @@
       <c r="J33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
+      <c r="K33" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P33" s="39"/>
       <c r="Q33" s="39"/>
       <c r="R33" s="39"/>
@@ -3023,7 +3293,7 @@
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>25</v>
@@ -3037,11 +3307,21 @@
       <c r="J34" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
+      <c r="K34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P34" s="39"/>
       <c r="Q34" s="39"/>
       <c r="R34" s="39"/>
@@ -3071,11 +3351,11 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3089,11 +3369,21 @@
       <c r="J35" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
+      <c r="K35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
       <c r="R35" s="39"/>
@@ -3123,11 +3413,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>20</v>
@@ -3141,11 +3431,21 @@
       <c r="J36" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
+      <c r="K36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P36" s="39"/>
       <c r="Q36" s="39"/>
       <c r="R36" s="39"/>
@@ -3179,7 +3479,7 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -3193,11 +3493,21 @@
       <c r="J37" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
+      <c r="K37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P37" s="39"/>
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
@@ -3227,11 +3537,11 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
@@ -3245,11 +3555,21 @@
       <c r="J38" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
+      <c r="K38" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P38" s="39"/>
       <c r="Q38" s="39"/>
       <c r="R38" s="39"/>
@@ -3279,11 +3599,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>20</v>
@@ -3297,11 +3617,21 @@
       <c r="J39" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
+      <c r="K39" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P39" s="39"/>
       <c r="Q39" s="39"/>
       <c r="R39" s="39"/>
@@ -3331,11 +3661,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -3349,11 +3679,21 @@
       <c r="J40" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
+      <c r="K40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P40" s="39"/>
       <c r="Q40" s="39"/>
       <c r="R40" s="39"/>
@@ -3387,7 +3727,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -3401,11 +3741,21 @@
       <c r="J41" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
+      <c r="K41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P41" s="39"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="39"/>
@@ -3439,7 +3789,7 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>25</v>
@@ -3453,11 +3803,21 @@
       <c r="J42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
+      <c r="K42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P42" s="39"/>
       <c r="Q42" s="39"/>
       <c r="R42" s="39"/>
@@ -3487,11 +3847,11 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>25</v>
@@ -3505,11 +3865,21 @@
       <c r="J43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
+      <c r="K43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P43" s="39"/>
       <c r="Q43" s="39"/>
       <c r="R43" s="39"/>
@@ -3539,11 +3909,11 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -3557,11 +3927,21 @@
       <c r="J44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
+      <c r="K44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P44" s="39"/>
       <c r="Q44" s="39"/>
       <c r="R44" s="39"/>
@@ -3591,11 +3971,11 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>20</v>
@@ -3609,11 +3989,21 @@
       <c r="J45" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
+      <c r="K45" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P45" s="39"/>
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
@@ -3643,11 +4033,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>20</v>
@@ -3661,11 +4051,21 @@
       <c r="J46" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
+      <c r="K46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P46" s="39"/>
       <c r="Q46" s="39"/>
       <c r="R46" s="39"/>
@@ -3695,11 +4095,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>20</v>
@@ -3713,11 +4113,21 @@
       <c r="J47" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
+      <c r="K47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P47" s="39"/>
       <c r="Q47" s="39"/>
       <c r="R47" s="39"/>
@@ -3751,7 +4161,7 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -3765,11 +4175,21 @@
       <c r="J48" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
+      <c r="K48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P48" s="39"/>
       <c r="Q48" s="39"/>
       <c r="R48" s="39"/>
@@ -3803,7 +4223,7 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -3817,11 +4237,21 @@
       <c r="J49" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
+      <c r="K49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P49" s="39"/>
       <c r="Q49" s="39"/>
       <c r="R49" s="39"/>
@@ -3851,11 +4281,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>25</v>
@@ -3869,11 +4299,21 @@
       <c r="J50" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
+      <c r="K50" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P50" s="39"/>
       <c r="Q50" s="39"/>
       <c r="R50" s="39"/>
@@ -3903,11 +4343,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>25</v>
@@ -3921,11 +4361,21 @@
       <c r="J51" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
+      <c r="K51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P51" s="39"/>
       <c r="Q51" s="39"/>
       <c r="R51" s="39"/>
@@ -3955,11 +4405,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>25</v>
@@ -3973,11 +4423,21 @@
       <c r="J52" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
+      <c r="K52" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P52" s="39"/>
       <c r="Q52" s="39"/>
       <c r="R52" s="39"/>
@@ -4011,7 +4471,7 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>20</v>
@@ -4025,11 +4485,21 @@
       <c r="J53" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
+      <c r="K53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P53" s="39"/>
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
@@ -4063,7 +4533,7 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>25</v>
@@ -4077,11 +4547,21 @@
       <c r="J54" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
+      <c r="K54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P54" s="39"/>
       <c r="Q54" s="39"/>
       <c r="R54" s="39"/>
@@ -4111,11 +4591,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>20</v>
@@ -4129,11 +4609,21 @@
       <c r="J55" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
+      <c r="K55" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P55" s="39"/>
       <c r="Q55" s="39"/>
       <c r="R55" s="39"/>
@@ -4167,7 +4657,7 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -4181,11 +4671,21 @@
       <c r="J56" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
+      <c r="K56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P56" s="39"/>
       <c r="Q56" s="39"/>
       <c r="R56" s="39"/>
@@ -4219,7 +4719,7 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>25</v>
@@ -4233,11 +4733,21 @@
       <c r="J57" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
+      <c r="K57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P57" s="39"/>
       <c r="Q57" s="39"/>
       <c r="R57" s="39"/>
@@ -4267,11 +4777,11 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>20</v>
@@ -4285,11 +4795,21 @@
       <c r="J58" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
+      <c r="K58" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P58" s="39"/>
       <c r="Q58" s="39"/>
       <c r="R58" s="39"/>
@@ -4323,7 +4843,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>20</v>
@@ -4337,11 +4857,21 @@
       <c r="J59" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
+      <c r="K59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P59" s="39"/>
       <c r="Q59" s="39"/>
       <c r="R59" s="39"/>
@@ -4371,11 +4901,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -4389,11 +4919,21 @@
       <c r="J60" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
+      <c r="K60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P60" s="39"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
@@ -4423,11 +4963,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -4441,11 +4981,21 @@
       <c r="J61" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
+      <c r="K61" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P61" s="39"/>
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
@@ -4475,11 +5025,11 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -4493,11 +5043,21 @@
       <c r="J62" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
+      <c r="K62" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P62" s="39"/>
       <c r="Q62" s="39"/>
       <c r="R62" s="39"/>
@@ -4527,11 +5087,11 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -4545,11 +5105,21 @@
       <c r="J63" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
+      <c r="K63" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P63" s="39"/>
       <c r="Q63" s="39"/>
       <c r="R63" s="39"/>
@@ -4579,11 +5149,11 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>20</v>
@@ -4597,11 +5167,21 @@
       <c r="J64" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
+      <c r="K64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
       <c r="R64" s="39"/>
@@ -4631,11 +5211,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -4649,11 +5229,21 @@
       <c r="J65" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="39"/>
-      <c r="O65" s="39"/>
+      <c r="K65" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P65" s="39"/>
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
@@ -4683,11 +5273,11 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>20</v>
@@ -4701,11 +5291,21 @@
       <c r="J66" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="39"/>
+      <c r="K66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P66" s="39"/>
       <c r="Q66" s="39"/>
       <c r="R66" s="39"/>
@@ -4739,7 +5339,7 @@
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>20</v>
@@ -4753,11 +5353,21 @@
       <c r="J67" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="39"/>
+      <c r="K67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P67" s="39"/>
       <c r="Q67" s="39"/>
       <c r="R67" s="39"/>
@@ -4787,11 +5397,11 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>25</v>
@@ -4805,11 +5415,21 @@
       <c r="J68" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
+      <c r="K68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O68" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P68" s="39"/>
       <c r="Q68" s="39"/>
       <c r="R68" s="39"/>
@@ -4843,7 +5463,7 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>20</v>
@@ -4857,11 +5477,21 @@
       <c r="J69" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
+      <c r="K69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P69" s="39"/>
       <c r="Q69" s="39"/>
       <c r="R69" s="39"/>
@@ -4891,11 +5521,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>20</v>
@@ -4909,11 +5539,21 @@
       <c r="J70" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
+      <c r="K70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O70" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P70" s="39"/>
       <c r="Q70" s="39"/>
       <c r="R70" s="39"/>
@@ -4947,7 +5587,7 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -4961,11 +5601,21 @@
       <c r="J71" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
+      <c r="K71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P71" s="39"/>
       <c r="Q71" s="39"/>
       <c r="R71" s="39"/>
@@ -4999,7 +5649,7 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>25</v>
@@ -5013,11 +5663,21 @@
       <c r="J72" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
+      <c r="K72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O72" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P72" s="39"/>
       <c r="Q72" s="39"/>
       <c r="R72" s="39"/>
@@ -5047,11 +5707,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
@@ -5065,11 +5725,21 @@
       <c r="J73" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
+      <c r="K73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O73" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P73" s="39"/>
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
@@ -5103,7 +5773,7 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>20</v>
@@ -5117,11 +5787,21 @@
       <c r="J74" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
+      <c r="K74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P74" s="39"/>
       <c r="Q74" s="39"/>
       <c r="R74" s="39"/>
@@ -5151,11 +5831,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -5169,11 +5849,21 @@
       <c r="J75" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
+      <c r="K75" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P75" s="39"/>
       <c r="Q75" s="39"/>
       <c r="R75" s="39"/>
@@ -5203,11 +5893,11 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>20</v>
@@ -5221,11 +5911,21 @@
       <c r="J76" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
+      <c r="K76" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P76" s="39"/>
       <c r="Q76" s="39"/>
       <c r="R76" s="39"/>
@@ -5255,11 +5955,11 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -5273,11 +5973,21 @@
       <c r="J77" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="39"/>
-      <c r="O77" s="39"/>
+      <c r="K77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P77" s="39"/>
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
@@ -5311,7 +6021,7 @@
       </c>
       <c r="F78" s="36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -5325,11 +6035,21 @@
       <c r="J78" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="39"/>
-      <c r="O78" s="39"/>
+      <c r="K78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P78" s="39"/>
       <c r="Q78" s="39"/>
       <c r="R78" s="39"/>
@@ -5359,11 +6079,11 @@
       </c>
       <c r="E79" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>25</v>
@@ -5377,11 +6097,21 @@
       <c r="J79" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
+      <c r="K79" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="P79" s="39"/>
       <c r="Q79" s="39"/>
       <c r="R79" s="39"/>
@@ -5411,11 +6141,11 @@
       </c>
       <c r="E80" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F80" s="36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>25</v>
@@ -5429,11 +6159,21 @@
       <c r="J80" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="39"/>
-      <c r="O80" s="39"/>
+      <c r="K80" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O80" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="P80" s="39"/>
       <c r="Q80" s="39"/>
       <c r="R80" s="39"/>
@@ -5468,7 +6208,7 @@
       <c r="I81" s="39"/>
       <c r="J81" s="38"/>
       <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
+      <c r="L81" s="38"/>
       <c r="M81" s="39"/>
       <c r="N81" s="39"/>
       <c r="O81" s="39"/>

--- a/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="168">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,6 +81,9 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP026</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
   </si>
   <si>
     <t>Aditi Chaudhary</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024PGP501</t>
@@ -1213,8 +1213,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+      <pane xSplit="3.0" ySplit="6.0" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="D7" sqref="D7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -1615,11 +1617,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1648,8 +1650,12 @@
       <c r="O7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="P7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="R7" s="32"/>
       <c r="S7" s="32"/>
       <c r="T7" s="32"/>
@@ -1667,10 +1673,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>9</v>
@@ -1681,7 +1687,7 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>20</v>
@@ -1710,9 +1716,13 @@
       <c r="O8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
+      <c r="P8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="38"/>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
       <c r="U8" s="39"/>
@@ -1729,10 +1739,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>9</v>
@@ -1743,13 +1753,13 @@
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I9" s="38" t="s">
         <v>20</v>
@@ -1770,10 +1780,14 @@
         <v>20</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
@@ -1805,13 +1819,13 @@
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I10" s="38" t="s">
         <v>20</v>
@@ -1826,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>20</v>
@@ -1834,8 +1848,12 @@
       <c r="O10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
+      <c r="P10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
@@ -1867,7 +1885,7 @@
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>20</v>
@@ -1876,7 +1894,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J11" s="38" t="s">
         <v>20</v>
@@ -1885,7 +1903,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M11" s="38" t="s">
         <v>20</v>
@@ -1896,8 +1914,12 @@
       <c r="O11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
+      <c r="P11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R11" s="39"/>
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
@@ -1925,20 +1947,20 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>20</v>
@@ -1950,7 +1972,7 @@
         <v>20</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N12" s="38" t="s">
         <v>20</v>
@@ -1958,8 +1980,12 @@
       <c r="O12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="P12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
@@ -1991,37 +2017,41 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L13" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="P13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R13" s="39"/>
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
@@ -2053,7 +2083,7 @@
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>20</v>
@@ -2082,8 +2112,12 @@
       <c r="O14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="P14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
@@ -2115,7 +2149,7 @@
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>20</v>
@@ -2136,7 +2170,7 @@
         <v>20</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N15" s="38" t="s">
         <v>20</v>
@@ -2144,8 +2178,12 @@
       <c r="O15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="P15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
@@ -2177,10 +2215,10 @@
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>20</v>
@@ -2201,13 +2239,17 @@
         <v>20</v>
       </c>
       <c r="N16" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
@@ -2239,7 +2281,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>20</v>
@@ -2268,8 +2310,12 @@
       <c r="O17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="P17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
       <c r="T17" s="39"/>
@@ -2301,7 +2347,7 @@
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>20</v>
@@ -2316,13 +2362,13 @@
         <v>20</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L18" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N18" s="38" t="s">
         <v>20</v>
@@ -2330,8 +2376,12 @@
       <c r="O18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="P18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
       <c r="T18" s="39"/>
@@ -2363,10 +2413,10 @@
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>20</v>
@@ -2384,7 +2434,7 @@
         <v>20</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N19" s="38" t="s">
         <v>20</v>
@@ -2392,8 +2442,12 @@
       <c r="O19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="P19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R19" s="39"/>
       <c r="S19" s="39"/>
       <c r="T19" s="39"/>
@@ -2421,11 +2475,11 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>20</v>
@@ -2454,8 +2508,12 @@
       <c r="O20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="P20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
       <c r="T20" s="39"/>
@@ -2487,7 +2545,7 @@
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>20</v>
@@ -2496,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>20</v>
@@ -2505,7 +2563,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M21" s="38" t="s">
         <v>20</v>
@@ -2514,10 +2572,14 @@
         <v>20</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
       <c r="T21" s="39"/>
@@ -2549,7 +2611,7 @@
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2570,16 +2632,20 @@
         <v>20</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
+      <c r="P22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
       <c r="T22" s="39"/>
@@ -2611,13 +2677,13 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I23" s="38" t="s">
         <v>20</v>
@@ -2640,8 +2706,12 @@
       <c r="O23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
+      <c r="P23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R23" s="39"/>
       <c r="S23" s="39"/>
       <c r="T23" s="39"/>
@@ -2673,7 +2743,7 @@
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -2682,7 +2752,7 @@
         <v>20</v>
       </c>
       <c r="I24" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J24" s="38" t="s">
         <v>20</v>
@@ -2691,7 +2761,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M24" s="38" t="s">
         <v>20</v>
@@ -2702,8 +2772,12 @@
       <c r="O24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
+      <c r="P24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
       <c r="T24" s="39"/>
@@ -2735,7 +2809,7 @@
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -2753,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M25" s="38" t="s">
         <v>20</v>
@@ -2764,8 +2838,12 @@
       <c r="O25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
+      <c r="P25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
       <c r="T25" s="39"/>
@@ -2797,7 +2875,7 @@
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -2812,7 +2890,7 @@
         <v>20</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L26" s="38" t="s">
         <v>20</v>
@@ -2826,8 +2904,12 @@
       <c r="O26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
+      <c r="P26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
       <c r="T26" s="39"/>
@@ -2859,10 +2941,10 @@
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>20</v>
@@ -2888,8 +2970,12 @@
       <c r="O27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
+      <c r="P27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R27" s="39"/>
       <c r="S27" s="39"/>
       <c r="T27" s="39"/>
@@ -2917,14 +3003,14 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>20</v>
@@ -2942,7 +3028,7 @@
         <v>20</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N28" s="38" t="s">
         <v>20</v>
@@ -2950,8 +3036,12 @@
       <c r="O28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
+      <c r="P28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
       <c r="T28" s="39"/>
@@ -2983,7 +3073,7 @@
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -3001,10 +3091,10 @@
         <v>20</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N29" s="38" t="s">
         <v>20</v>
@@ -3012,8 +3102,12 @@
       <c r="O29" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+      <c r="P29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R29" s="39"/>
       <c r="S29" s="39"/>
       <c r="T29" s="39"/>
@@ -3041,14 +3135,14 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>20</v>
@@ -3074,8 +3168,12 @@
       <c r="O30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
+      <c r="P30" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
       <c r="T30" s="39"/>
@@ -3107,7 +3205,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>20</v>
@@ -3136,8 +3234,12 @@
       <c r="O31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
+      <c r="P31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R31" s="39"/>
       <c r="S31" s="39"/>
       <c r="T31" s="39"/>
@@ -3169,13 +3271,13 @@
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I32" s="38" t="s">
         <v>20</v>
@@ -3190,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N32" s="38" t="s">
         <v>20</v>
@@ -3198,8 +3300,12 @@
       <c r="O32" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
+      <c r="P32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
       <c r="T32" s="39"/>
@@ -3227,17 +3333,17 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I33" s="38" t="s">
         <v>20</v>
@@ -3246,7 +3352,7 @@
         <v>20</v>
       </c>
       <c r="K33" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L33" s="38" t="s">
         <v>20</v>
@@ -3255,13 +3361,17 @@
         <v>20</v>
       </c>
       <c r="N33" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
+      <c r="P33" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R33" s="39"/>
       <c r="S33" s="39"/>
       <c r="T33" s="39"/>
@@ -3293,13 +3403,13 @@
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I34" s="38" t="s">
         <v>20</v>
@@ -3322,8 +3432,12 @@
       <c r="O34" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
+      <c r="P34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
       <c r="T34" s="39"/>
@@ -3355,7 +3469,7 @@
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3376,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N35" s="38" t="s">
         <v>20</v>
@@ -3384,8 +3498,12 @@
       <c r="O35" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
+      <c r="P35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R35" s="39"/>
       <c r="S35" s="39"/>
       <c r="T35" s="39"/>
@@ -3413,11 +3531,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>20</v>
@@ -3438,16 +3556,20 @@
         <v>20</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N36" s="38" t="s">
         <v>20</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
       <c r="T36" s="39"/>
@@ -3479,7 +3601,7 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -3508,8 +3630,12 @@
       <c r="O37" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
+      <c r="P37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R37" s="39"/>
       <c r="S37" s="39"/>
       <c r="T37" s="39"/>
@@ -3541,7 +3667,7 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
@@ -3556,7 +3682,7 @@
         <v>20</v>
       </c>
       <c r="K38" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L38" s="38" t="s">
         <v>20</v>
@@ -3568,10 +3694,14 @@
         <v>20</v>
       </c>
       <c r="O38" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
       <c r="T38" s="39"/>
@@ -3603,7 +3733,7 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>20</v>
@@ -3618,22 +3748,26 @@
         <v>20</v>
       </c>
       <c r="K39" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L39" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N39" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O39" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
+      <c r="P39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R39" s="39"/>
       <c r="S39" s="39"/>
       <c r="T39" s="39"/>
@@ -3665,7 +3799,7 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -3686,16 +3820,20 @@
         <v>20</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N40" s="38" t="s">
         <v>20</v>
       </c>
       <c r="O40" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R40" s="39"/>
       <c r="S40" s="39"/>
       <c r="T40" s="39"/>
@@ -3727,7 +3865,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -3756,8 +3894,12 @@
       <c r="O41" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
+      <c r="P41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R41" s="39"/>
       <c r="S41" s="39"/>
       <c r="T41" s="39"/>
@@ -3789,16 +3931,16 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I42" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J42" s="38" t="s">
         <v>20</v>
@@ -3818,8 +3960,12 @@
       <c r="O42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
+      <c r="P42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
       <c r="T42" s="39"/>
@@ -3851,10 +3997,10 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>20</v>
@@ -3872,16 +4018,20 @@
         <v>20</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N43" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="39"/>
+      <c r="P43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R43" s="39"/>
       <c r="S43" s="39"/>
       <c r="T43" s="39"/>
@@ -3913,7 +4063,7 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -3940,10 +4090,14 @@
         <v>20</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
       <c r="T44" s="39"/>
@@ -3975,7 +4129,7 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>20</v>
@@ -3990,10 +4144,10 @@
         <v>20</v>
       </c>
       <c r="K45" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M45" s="38" t="s">
         <v>20</v>
@@ -4002,10 +4156,14 @@
         <v>20</v>
       </c>
       <c r="O45" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R45" s="39"/>
       <c r="S45" s="39"/>
       <c r="T45" s="39"/>
@@ -4033,11 +4191,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>20</v>
@@ -4058,7 +4216,7 @@
         <v>20</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N46" s="38" t="s">
         <v>20</v>
@@ -4066,8 +4224,12 @@
       <c r="O46" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
+      <c r="P46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
       <c r="T46" s="39"/>
@@ -4099,7 +4261,7 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>20</v>
@@ -4120,7 +4282,7 @@
         <v>20</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N47" s="38" t="s">
         <v>20</v>
@@ -4128,8 +4290,12 @@
       <c r="O47" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
+      <c r="P47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R47" s="39"/>
       <c r="S47" s="39"/>
       <c r="T47" s="39"/>
@@ -4157,11 +4323,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -4190,8 +4356,12 @@
       <c r="O48" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="39"/>
+      <c r="P48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
       <c r="T48" s="39"/>
@@ -4223,7 +4393,7 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -4235,7 +4405,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K49" s="38" t="s">
         <v>20</v>
@@ -4252,8 +4422,12 @@
       <c r="O49" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
+      <c r="P49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R49" s="39"/>
       <c r="S49" s="39"/>
       <c r="T49" s="39"/>
@@ -4281,26 +4455,26 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F50" s="36">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F50" s="36">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="G50" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I50" s="38" t="s">
         <v>20</v>
       </c>
       <c r="J50" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K50" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L50" s="38" t="s">
         <v>20</v>
@@ -4309,13 +4483,17 @@
         <v>20</v>
       </c>
       <c r="N50" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O50" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="39"/>
+      <c r="P50" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
       <c r="T50" s="39"/>
@@ -4347,13 +4525,13 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H51" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I51" s="38" t="s">
         <v>20</v>
@@ -4371,13 +4549,17 @@
         <v>20</v>
       </c>
       <c r="N51" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O51" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="39"/>
+      <c r="P51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R51" s="39"/>
       <c r="S51" s="39"/>
       <c r="T51" s="39"/>
@@ -4405,26 +4587,26 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F52" s="36">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F52" s="36">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="G52" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H52" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I52" s="38" t="s">
         <v>20</v>
       </c>
       <c r="J52" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K52" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L52" s="38" t="s">
         <v>20</v>
@@ -4433,13 +4615,17 @@
         <v>20</v>
       </c>
       <c r="N52" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O52" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
+      <c r="P52" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
       <c r="T52" s="39"/>
@@ -4471,7 +4657,7 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>20</v>
@@ -4500,8 +4686,12 @@
       <c r="O53" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
+      <c r="P53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R53" s="39"/>
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
@@ -4533,10 +4723,10 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>20</v>
@@ -4562,8 +4752,12 @@
       <c r="O54" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="39"/>
+      <c r="P54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
@@ -4595,7 +4789,7 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>20</v>
@@ -4610,7 +4804,7 @@
         <v>20</v>
       </c>
       <c r="K55" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L55" s="38" t="s">
         <v>20</v>
@@ -4624,8 +4818,12 @@
       <c r="O55" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
+      <c r="P55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R55" s="39"/>
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
@@ -4657,7 +4855,7 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -4666,7 +4864,7 @@
         <v>20</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J56" s="38" t="s">
         <v>20</v>
@@ -4686,8 +4884,12 @@
       <c r="O56" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
+      <c r="P56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
@@ -4719,13 +4921,13 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H57" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I57" s="38" t="s">
         <v>20</v>
@@ -4748,8 +4950,12 @@
       <c r="O57" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
+      <c r="P57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R57" s="39"/>
       <c r="S57" s="39"/>
       <c r="T57" s="39"/>
@@ -4777,11 +4983,11 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>20</v>
@@ -4796,13 +5002,13 @@
         <v>20</v>
       </c>
       <c r="K58" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L58" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N58" s="38" t="s">
         <v>20</v>
@@ -4810,8 +5016,12 @@
       <c r="O58" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
+      <c r="P58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
       <c r="T58" s="39"/>
@@ -4843,7 +5053,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>20</v>
@@ -4855,7 +5065,7 @@
         <v>20</v>
       </c>
       <c r="J59" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K59" s="38" t="s">
         <v>20</v>
@@ -4872,8 +5082,12 @@
       <c r="O59" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
+      <c r="P59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R59" s="39"/>
       <c r="S59" s="39"/>
       <c r="T59" s="39"/>
@@ -4901,11 +5115,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -4926,7 +5140,7 @@
         <v>20</v>
       </c>
       <c r="M60" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N60" s="38" t="s">
         <v>20</v>
@@ -4934,8 +5148,12 @@
       <c r="O60" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
+      <c r="P60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
       <c r="T60" s="39"/>
@@ -4967,7 +5185,7 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -4982,13 +5200,13 @@
         <v>20</v>
       </c>
       <c r="K61" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L61" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N61" s="38" t="s">
         <v>20</v>
@@ -4996,8 +5214,12 @@
       <c r="O61" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
+      <c r="P61" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R61" s="39"/>
       <c r="S61" s="39"/>
       <c r="T61" s="39"/>
@@ -5029,7 +5251,7 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -5050,7 +5272,7 @@
         <v>20</v>
       </c>
       <c r="M62" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N62" s="38" t="s">
         <v>20</v>
@@ -5058,8 +5280,12 @@
       <c r="O62" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
+      <c r="P62" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R62" s="39"/>
       <c r="S62" s="39"/>
       <c r="T62" s="39"/>
@@ -5091,7 +5317,7 @@
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -5100,19 +5326,19 @@
         <v>20</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>20</v>
       </c>
       <c r="K63" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L63" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N63" s="38" t="s">
         <v>20</v>
@@ -5120,8 +5346,12 @@
       <c r="O63" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
+      <c r="P63" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q63" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="39"/>
       <c r="S63" s="39"/>
       <c r="T63" s="39"/>
@@ -5149,11 +5379,11 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>20</v>
@@ -5162,16 +5392,16 @@
         <v>20</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J64" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K64" s="38" t="s">
         <v>20</v>
       </c>
       <c r="L64" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M64" s="38" t="s">
         <v>20</v>
@@ -5182,8 +5412,12 @@
       <c r="O64" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P64" s="39"/>
-      <c r="Q64" s="39"/>
+      <c r="P64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="R64" s="39"/>
       <c r="S64" s="39"/>
       <c r="T64" s="39"/>
@@ -5215,7 +5449,7 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -5224,13 +5458,13 @@
         <v>20</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>20</v>
       </c>
       <c r="K65" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L65" s="38" t="s">
         <v>20</v>
@@ -5244,8 +5478,12 @@
       <c r="O65" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P65" s="39"/>
-      <c r="Q65" s="39"/>
+      <c r="P65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R65" s="39"/>
       <c r="S65" s="39"/>
       <c r="T65" s="39"/>
@@ -5277,13 +5515,13 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I66" s="38" t="s">
         <v>20</v>
@@ -5298,7 +5536,7 @@
         <v>20</v>
       </c>
       <c r="M66" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N66" s="38" t="s">
         <v>20</v>
@@ -5306,8 +5544,12 @@
       <c r="O66" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P66" s="39"/>
-      <c r="Q66" s="39"/>
+      <c r="P66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R66" s="39"/>
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
@@ -5339,7 +5581,7 @@
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>20</v>
@@ -5368,8 +5610,12 @@
       <c r="O67" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P67" s="39"/>
-      <c r="Q67" s="39"/>
+      <c r="P67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
       <c r="T67" s="39"/>
@@ -5401,16 +5647,16 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H68" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>20</v>
@@ -5422,7 +5668,7 @@
         <v>20</v>
       </c>
       <c r="M68" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N68" s="38" t="s">
         <v>20</v>
@@ -5430,8 +5676,12 @@
       <c r="O68" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
+      <c r="P68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R68" s="39"/>
       <c r="S68" s="39"/>
       <c r="T68" s="39"/>
@@ -5463,7 +5713,7 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>20</v>
@@ -5492,8 +5742,12 @@
       <c r="O69" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
+      <c r="P69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
       <c r="T69" s="39"/>
@@ -5525,7 +5779,7 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>20</v>
@@ -5546,16 +5800,20 @@
         <v>20</v>
       </c>
       <c r="M70" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N70" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O70" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
+      <c r="P70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R70" s="39"/>
       <c r="S70" s="39"/>
       <c r="T70" s="39"/>
@@ -5587,7 +5845,7 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -5616,8 +5874,12 @@
       <c r="O71" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
+      <c r="P71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R71" s="39"/>
       <c r="S71" s="39"/>
       <c r="T71" s="39"/>
@@ -5649,10 +5911,10 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>20</v>
@@ -5678,8 +5940,12 @@
       <c r="O72" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
+      <c r="P72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R72" s="39"/>
       <c r="S72" s="39"/>
       <c r="T72" s="39"/>
@@ -5711,13 +5977,13 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H73" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I73" s="38" t="s">
         <v>20</v>
@@ -5732,7 +5998,7 @@
         <v>20</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N73" s="38" t="s">
         <v>20</v>
@@ -5740,8 +6006,12 @@
       <c r="O73" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
+      <c r="P73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R73" s="39"/>
       <c r="S73" s="39"/>
       <c r="T73" s="39"/>
@@ -5773,7 +6043,7 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>20</v>
@@ -5802,8 +6072,12 @@
       <c r="O74" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
+      <c r="P74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R74" s="39"/>
       <c r="S74" s="39"/>
       <c r="T74" s="39"/>
@@ -5835,7 +6109,7 @@
       </c>
       <c r="F75" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -5856,7 +6130,7 @@
         <v>20</v>
       </c>
       <c r="M75" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N75" s="38" t="s">
         <v>20</v>
@@ -5864,8 +6138,12 @@
       <c r="O75" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
+      <c r="P75" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R75" s="39"/>
       <c r="S75" s="39"/>
       <c r="T75" s="39"/>
@@ -5897,13 +6175,13 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I76" s="38" t="s">
         <v>20</v>
@@ -5924,10 +6202,14 @@
         <v>20</v>
       </c>
       <c r="O76" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P76" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q76" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R76" s="39"/>
       <c r="S76" s="39"/>
       <c r="T76" s="39"/>
@@ -5959,7 +6241,7 @@
       </c>
       <c r="F77" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -5968,7 +6250,7 @@
         <v>20</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J77" s="38" t="s">
         <v>20</v>
@@ -5980,7 +6262,7 @@
         <v>20</v>
       </c>
       <c r="M77" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N77" s="38" t="s">
         <v>20</v>
@@ -5988,8 +6270,12 @@
       <c r="O77" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P77" s="39"/>
-      <c r="Q77" s="39"/>
+      <c r="P77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q77" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R77" s="39"/>
       <c r="S77" s="39"/>
       <c r="T77" s="39"/>
@@ -6021,7 +6307,7 @@
       </c>
       <c r="F78" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -6050,8 +6336,12 @@
       <c r="O78" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
+      <c r="P78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q78" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R78" s="39"/>
       <c r="S78" s="39"/>
       <c r="T78" s="39"/>
@@ -6083,10 +6373,10 @@
       </c>
       <c r="F79" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G79" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H79" s="38" t="s">
         <v>20</v>
@@ -6104,7 +6394,7 @@
         <v>20</v>
       </c>
       <c r="M79" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N79" s="38" t="s">
         <v>20</v>
@@ -6112,8 +6402,12 @@
       <c r="O79" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
+      <c r="P79" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q79" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R79" s="39"/>
       <c r="S79" s="39"/>
       <c r="T79" s="39"/>
@@ -6145,16 +6439,16 @@
       </c>
       <c r="F80" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G80" s="37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H80" s="38" t="s">
         <v>20</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J80" s="38" t="s">
         <v>20</v>
@@ -6169,13 +6463,17 @@
         <v>20</v>
       </c>
       <c r="N80" s="38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O80" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="P80" s="39"/>
-      <c r="Q80" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="P80" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q80" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="R80" s="39"/>
       <c r="S80" s="39"/>
       <c r="T80" s="39"/>

--- a/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="168">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1656,11 +1656,21 @@
       <c r="Q7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
+      <c r="R7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="W7" s="32"/>
       <c r="X7" s="32"/>
       <c r="Y7" s="32"/>
@@ -1687,7 +1697,7 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>20</v>
@@ -1722,12 +1732,22 @@
       <c r="Q8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
+      <c r="R8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="38"/>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
       <c r="Z8" s="39"/>
@@ -1749,11 +1769,11 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>20</v>
@@ -1788,11 +1808,21 @@
       <c r="Q9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
+      <c r="R9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W9" s="39"/>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
@@ -1819,7 +1849,7 @@
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>20</v>
@@ -1854,11 +1884,21 @@
       <c r="Q10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
+      <c r="R10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
@@ -1881,11 +1921,11 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>20</v>
@@ -1920,11 +1960,21 @@
       <c r="Q11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
+      <c r="R11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W11" s="39"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -1947,11 +1997,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>21</v>
@@ -1986,11 +2036,21 @@
       <c r="Q12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+      <c r="R12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -2013,11 +2073,11 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>21</v>
@@ -2052,11 +2112,21 @@
       <c r="Q13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
+      <c r="R13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -2079,11 +2149,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>20</v>
@@ -2118,11 +2188,21 @@
       <c r="Q14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
+      <c r="R14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -2145,11 +2225,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>20</v>
@@ -2184,11 +2264,21 @@
       <c r="Q15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="R15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -2211,11 +2301,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>21</v>
@@ -2250,11 +2340,21 @@
       <c r="Q16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
+      <c r="R16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V16" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
       <c r="Y16" s="39"/>
@@ -2281,7 +2381,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>20</v>
@@ -2316,11 +2416,21 @@
       <c r="Q17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
+      <c r="R17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
@@ -2347,7 +2457,7 @@
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>20</v>
@@ -2382,11 +2492,21 @@
       <c r="Q18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
+      <c r="R18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
@@ -2413,7 +2533,7 @@
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>21</v>
@@ -2448,11 +2568,21 @@
       <c r="Q19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
+      <c r="R19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
@@ -2475,11 +2605,11 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>20</v>
@@ -2514,11 +2644,21 @@
       <c r="Q20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
+      <c r="R20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
@@ -2545,7 +2685,7 @@
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>20</v>
@@ -2580,11 +2720,21 @@
       <c r="Q21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
+      <c r="R21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V21" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -2607,11 +2757,11 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2646,11 +2796,21 @@
       <c r="Q22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
+      <c r="R22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
@@ -2677,7 +2837,7 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>21</v>
@@ -2712,11 +2872,21 @@
       <c r="Q23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
+      <c r="R23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
@@ -2739,11 +2909,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -2778,11 +2948,21 @@
       <c r="Q24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="R24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
       <c r="Y24" s="39"/>
@@ -2809,7 +2989,7 @@
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -2844,11 +3024,21 @@
       <c r="Q25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="R25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V25" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
@@ -2875,7 +3065,7 @@
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -2910,11 +3100,21 @@
       <c r="Q26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
+      <c r="R26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
@@ -2941,7 +3141,7 @@
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>21</v>
@@ -2976,11 +3176,21 @@
       <c r="Q27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="R27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V27" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
@@ -3007,7 +3217,7 @@
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>21</v>
@@ -3042,11 +3252,21 @@
       <c r="Q28" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="R28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V28" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
@@ -3073,7 +3293,7 @@
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -3108,11 +3328,21 @@
       <c r="Q29" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
+      <c r="R29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
       <c r="Y29" s="39"/>
@@ -3135,11 +3365,11 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>21</v>
@@ -3174,11 +3404,21 @@
       <c r="Q30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
+      <c r="R30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
@@ -3205,7 +3445,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>20</v>
@@ -3240,11 +3480,21 @@
       <c r="Q31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
+      <c r="R31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
       <c r="Y31" s="39"/>
@@ -3271,7 +3521,7 @@
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>21</v>
@@ -3306,11 +3556,21 @@
       <c r="Q32" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
+      <c r="R32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V32" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
       <c r="Y32" s="39"/>
@@ -3337,7 +3597,7 @@
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>21</v>
@@ -3372,11 +3632,21 @@
       <c r="Q33" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
+      <c r="R33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V33" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
       <c r="Y33" s="39"/>
@@ -3399,11 +3669,11 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>21</v>
@@ -3438,11 +3708,21 @@
       <c r="Q34" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
+      <c r="R34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
       <c r="Y34" s="39"/>
@@ -3465,11 +3745,11 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3504,11 +3784,21 @@
       <c r="Q35" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="R35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
       <c r="Y35" s="39"/>
@@ -3535,7 +3825,7 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>20</v>
@@ -3570,11 +3860,21 @@
       <c r="Q36" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
+      <c r="R36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="39"/>
@@ -3601,7 +3901,7 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -3636,11 +3936,21 @@
       <c r="Q37" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
+      <c r="R37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V37" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W37" s="39"/>
       <c r="X37" s="39"/>
       <c r="Y37" s="39"/>
@@ -3667,7 +3977,7 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
@@ -3702,11 +4012,21 @@
       <c r="Q38" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
+      <c r="R38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V38" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W38" s="39"/>
       <c r="X38" s="39"/>
       <c r="Y38" s="39"/>
@@ -3733,7 +4053,7 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>20</v>
@@ -3768,11 +4088,21 @@
       <c r="Q39" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="39"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
+      <c r="R39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V39" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
       <c r="Y39" s="39"/>
@@ -3795,11 +4125,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -3834,11 +4164,21 @@
       <c r="Q40" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R40" s="39"/>
-      <c r="S40" s="39"/>
-      <c r="T40" s="39"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
+      <c r="R40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V40" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
       <c r="Y40" s="39"/>
@@ -3865,7 +4205,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -3900,11 +4240,21 @@
       <c r="Q41" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
+      <c r="R41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V41" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W41" s="39"/>
       <c r="X41" s="39"/>
       <c r="Y41" s="39"/>
@@ -3927,11 +4277,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>21</v>
@@ -3966,11 +4316,21 @@
       <c r="Q42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="39"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="39"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="39"/>
+      <c r="R42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
       <c r="Y42" s="39"/>
@@ -3997,7 +4357,7 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>21</v>
@@ -4032,11 +4392,21 @@
       <c r="Q43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="39"/>
-      <c r="S43" s="39"/>
-      <c r="T43" s="39"/>
-      <c r="U43" s="39"/>
-      <c r="V43" s="39"/>
+      <c r="R43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V43" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
       <c r="Y43" s="39"/>
@@ -4059,11 +4429,11 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -4098,11 +4468,21 @@
       <c r="Q44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="39"/>
-      <c r="S44" s="39"/>
-      <c r="T44" s="39"/>
-      <c r="U44" s="39"/>
-      <c r="V44" s="39"/>
+      <c r="R44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V44" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
       <c r="Y44" s="39"/>
@@ -4129,7 +4509,7 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>20</v>
@@ -4164,11 +4544,21 @@
       <c r="Q45" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
-      <c r="V45" s="39"/>
+      <c r="R45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V45" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W45" s="39"/>
       <c r="X45" s="39"/>
       <c r="Y45" s="39"/>
@@ -4191,11 +4581,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>20</v>
@@ -4230,11 +4620,21 @@
       <c r="Q46" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
-      <c r="U46" s="39"/>
-      <c r="V46" s="39"/>
+      <c r="R46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
       <c r="Y46" s="39"/>
@@ -4257,11 +4657,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>20</v>
@@ -4296,11 +4696,21 @@
       <c r="Q47" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
+      <c r="R47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V47" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
       <c r="Y47" s="39"/>
@@ -4323,11 +4733,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -4362,11 +4772,21 @@
       <c r="Q48" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
+      <c r="R48" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T48" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
       <c r="Y48" s="39"/>
@@ -4389,11 +4809,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -4428,11 +4848,21 @@
       <c r="Q49" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
+      <c r="R49" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V49" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
       <c r="Y49" s="39"/>
@@ -4455,11 +4885,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>21</v>
@@ -4494,11 +4924,21 @@
       <c r="Q50" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
+      <c r="R50" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T50" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U50" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V50" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
       <c r="Y50" s="39"/>
@@ -4525,7 +4965,7 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>21</v>
@@ -4560,11 +5000,21 @@
       <c r="Q51" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R51" s="39"/>
-      <c r="S51" s="39"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="39"/>
-      <c r="V51" s="39"/>
+      <c r="R51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V51" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W51" s="39"/>
       <c r="X51" s="39"/>
       <c r="Y51" s="39"/>
@@ -4587,11 +5037,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>21</v>
@@ -4626,11 +5076,21 @@
       <c r="Q52" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="39"/>
+      <c r="R52" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T52" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U52" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V52" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W52" s="39"/>
       <c r="X52" s="39"/>
       <c r="Y52" s="39"/>
@@ -4657,7 +5117,7 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>20</v>
@@ -4692,11 +5152,21 @@
       <c r="Q53" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="39"/>
-      <c r="S53" s="39"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="39"/>
+      <c r="R53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V53" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W53" s="39"/>
       <c r="X53" s="39"/>
       <c r="Y53" s="39"/>
@@ -4723,7 +5193,7 @@
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>21</v>
@@ -4758,11 +5228,21 @@
       <c r="Q54" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="39"/>
-      <c r="S54" s="39"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="39"/>
+      <c r="R54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V54" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W54" s="39"/>
       <c r="X54" s="39"/>
       <c r="Y54" s="39"/>
@@ -4785,11 +5265,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>20</v>
@@ -4824,11 +5304,21 @@
       <c r="Q55" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
+      <c r="R55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T55" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V55" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
       <c r="Y55" s="39"/>
@@ -4851,11 +5341,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -4890,11 +5380,21 @@
       <c r="Q56" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
+      <c r="R56" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V56" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W56" s="39"/>
       <c r="X56" s="39"/>
       <c r="Y56" s="39"/>
@@ -4917,11 +5417,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>21</v>
@@ -4956,11 +5456,21 @@
       <c r="Q57" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
+      <c r="R57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V57" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W57" s="39"/>
       <c r="X57" s="39"/>
       <c r="Y57" s="39"/>
@@ -4983,11 +5493,11 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>20</v>
@@ -5022,11 +5532,21 @@
       <c r="Q58" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
+      <c r="R58" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U58" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V58" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W58" s="39"/>
       <c r="X58" s="39"/>
       <c r="Y58" s="39"/>
@@ -5053,7 +5573,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>20</v>
@@ -5088,11 +5608,21 @@
       <c r="Q59" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
+      <c r="R59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V59" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W59" s="39"/>
       <c r="X59" s="39"/>
       <c r="Y59" s="39"/>
@@ -5115,11 +5645,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -5154,11 +5684,21 @@
       <c r="Q60" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
+      <c r="R60" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V60" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W60" s="39"/>
       <c r="X60" s="39"/>
       <c r="Y60" s="39"/>
@@ -5181,11 +5721,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -5220,11 +5760,21 @@
       <c r="Q61" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
+      <c r="R61" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S61" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W61" s="39"/>
       <c r="X61" s="39"/>
       <c r="Y61" s="39"/>
@@ -5247,11 +5797,11 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -5286,11 +5836,21 @@
       <c r="Q62" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
+      <c r="R62" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T62" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W62" s="39"/>
       <c r="X62" s="39"/>
       <c r="Y62" s="39"/>
@@ -5313,11 +5873,11 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -5352,11 +5912,21 @@
       <c r="Q63" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
+      <c r="R63" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S63" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T63" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U63" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V63" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W63" s="39"/>
       <c r="X63" s="39"/>
       <c r="Y63" s="39"/>
@@ -5383,7 +5953,7 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>20</v>
@@ -5418,11 +5988,21 @@
       <c r="Q64" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="R64" s="39"/>
-      <c r="S64" s="39"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="39"/>
-      <c r="V64" s="39"/>
+      <c r="R64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V64" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W64" s="39"/>
       <c r="X64" s="39"/>
       <c r="Y64" s="39"/>
@@ -5449,7 +6029,7 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -5484,11 +6064,21 @@
       <c r="Q65" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R65" s="39"/>
-      <c r="S65" s="39"/>
-      <c r="T65" s="39"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="39"/>
+      <c r="R65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V65" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W65" s="39"/>
       <c r="X65" s="39"/>
       <c r="Y65" s="39"/>
@@ -5515,7 +6105,7 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>20</v>
@@ -5550,11 +6140,21 @@
       <c r="Q66" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R66" s="39"/>
-      <c r="S66" s="39"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="39"/>
+      <c r="R66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U66" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V66" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
       <c r="Y66" s="39"/>
@@ -5577,11 +6177,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>20</v>
@@ -5616,11 +6216,21 @@
       <c r="Q67" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R67" s="39"/>
-      <c r="S67" s="39"/>
-      <c r="T67" s="39"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="39"/>
+      <c r="R67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V67" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W67" s="39"/>
       <c r="X67" s="39"/>
       <c r="Y67" s="39"/>
@@ -5647,7 +6257,7 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>21</v>
@@ -5682,11 +6292,21 @@
       <c r="Q68" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
+      <c r="R68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W68" s="39"/>
       <c r="X68" s="39"/>
       <c r="Y68" s="39"/>
@@ -5713,7 +6333,7 @@
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>20</v>
@@ -5748,11 +6368,21 @@
       <c r="Q69" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39"/>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
+      <c r="R69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V69" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W69" s="39"/>
       <c r="X69" s="39"/>
       <c r="Y69" s="39"/>
@@ -5779,7 +6409,7 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>20</v>
@@ -5814,11 +6444,21 @@
       <c r="Q70" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R70" s="39"/>
-      <c r="S70" s="39"/>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
+      <c r="R70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V70" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W70" s="39"/>
       <c r="X70" s="39"/>
       <c r="Y70" s="39"/>
@@ -5845,7 +6485,7 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -5880,11 +6520,21 @@
       <c r="Q71" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R71" s="39"/>
-      <c r="S71" s="39"/>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
+      <c r="R71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V71" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W71" s="39"/>
       <c r="X71" s="39"/>
       <c r="Y71" s="39"/>
@@ -5911,7 +6561,7 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>21</v>
@@ -5946,11 +6596,21 @@
       <c r="Q72" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
+      <c r="R72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U72" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V72" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W72" s="39"/>
       <c r="X72" s="39"/>
       <c r="Y72" s="39"/>
@@ -5977,7 +6637,7 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
@@ -6012,11 +6672,21 @@
       <c r="Q73" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
+      <c r="R73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V73" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W73" s="39"/>
       <c r="X73" s="39"/>
       <c r="Y73" s="39"/>
@@ -6039,11 +6709,11 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>20</v>
@@ -6078,11 +6748,21 @@
       <c r="Q74" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
+      <c r="R74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V74" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W74" s="39"/>
       <c r="X74" s="39"/>
       <c r="Y74" s="39"/>
@@ -6105,11 +6785,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -6144,11 +6824,21 @@
       <c r="Q75" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
+      <c r="R75" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T75" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U75" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V75" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W75" s="39"/>
       <c r="X75" s="39"/>
       <c r="Y75" s="39"/>
@@ -6171,11 +6861,11 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>20</v>
@@ -6210,11 +6900,21 @@
       <c r="Q76" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="39"/>
-      <c r="U76" s="39"/>
-      <c r="V76" s="39"/>
+      <c r="R76" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U76" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V76" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W76" s="39"/>
       <c r="X76" s="39"/>
       <c r="Y76" s="39"/>
@@ -6237,11 +6937,11 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -6276,11 +6976,21 @@
       <c r="Q77" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R77" s="39"/>
-      <c r="S77" s="39"/>
-      <c r="T77" s="39"/>
-      <c r="U77" s="39"/>
-      <c r="V77" s="39"/>
+      <c r="R77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V77" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="W77" s="39"/>
       <c r="X77" s="39"/>
       <c r="Y77" s="39"/>
@@ -6303,11 +7013,11 @@
       </c>
       <c r="E78" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -6342,11 +7052,21 @@
       <c r="Q78" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
+      <c r="R78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="T78" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="U78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V78" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W78" s="39"/>
       <c r="X78" s="39"/>
       <c r="Y78" s="39"/>
@@ -6369,11 +7089,11 @@
       </c>
       <c r="E79" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>21</v>
@@ -6408,11 +7128,21 @@
       <c r="Q79" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
+      <c r="R79" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S79" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T79" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U79" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V79" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W79" s="39"/>
       <c r="X79" s="39"/>
       <c r="Y79" s="39"/>
@@ -6435,11 +7165,11 @@
       </c>
       <c r="E80" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F80" s="36">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>21</v>
@@ -6474,11 +7204,21 @@
       <c r="Q80" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39"/>
-      <c r="T80" s="39"/>
-      <c r="U80" s="39"/>
-      <c r="V80" s="39"/>
+      <c r="R80" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T80" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="U80" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="V80" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="W80" s="39"/>
       <c r="X80" s="39"/>
       <c r="Y80" s="39"/>

--- a/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="168">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1671,7 +1671,9 @@
       <c r="V7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="32"/>
+      <c r="W7" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="X7" s="32"/>
       <c r="Y7" s="32"/>
       <c r="Z7" s="32"/>
@@ -1693,7 +1695,7 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
@@ -1747,8 +1749,10 @@
       <c r="V8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W8" s="38"/>
-      <c r="X8" s="39"/>
+      <c r="W8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="38"/>
       <c r="Y8" s="39"/>
       <c r="Z8" s="39"/>
       <c r="AA8" s="39"/>
@@ -1773,7 +1777,7 @@
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>20</v>
@@ -1823,7 +1827,9 @@
       <c r="V9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="39"/>
+      <c r="W9" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
       <c r="Z9" s="39"/>
@@ -1845,7 +1851,7 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
@@ -1899,7 +1905,9 @@
       <c r="V10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="39"/>
+      <c r="W10" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
       <c r="Z10" s="39"/>
@@ -1925,7 +1933,7 @@
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>20</v>
@@ -1975,7 +1983,9 @@
       <c r="V11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="39"/>
+      <c r="W11" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
       <c r="Z11" s="39"/>
@@ -2001,7 +2011,7 @@
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>21</v>
@@ -2051,7 +2061,9 @@
       <c r="V12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W12" s="39"/>
+      <c r="W12" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
       <c r="Z12" s="39"/>
@@ -2077,7 +2089,7 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>21</v>
@@ -2127,7 +2139,9 @@
       <c r="V13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W13" s="39"/>
+      <c r="W13" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
       <c r="Z13" s="39"/>
@@ -2153,7 +2167,7 @@
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>20</v>
@@ -2203,7 +2217,9 @@
       <c r="V14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="39"/>
+      <c r="W14" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
@@ -2229,7 +2245,7 @@
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>20</v>
@@ -2279,7 +2295,9 @@
       <c r="V15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W15" s="39"/>
+      <c r="W15" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
       <c r="Z15" s="39"/>
@@ -2305,7 +2323,7 @@
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>21</v>
@@ -2355,7 +2373,9 @@
       <c r="V16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W16" s="39"/>
+      <c r="W16" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X16" s="39"/>
       <c r="Y16" s="39"/>
       <c r="Z16" s="39"/>
@@ -2381,7 +2401,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>20</v>
@@ -2431,7 +2451,9 @@
       <c r="V17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="39"/>
+      <c r="W17" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
       <c r="Z17" s="39"/>
@@ -2457,7 +2479,7 @@
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>20</v>
@@ -2507,7 +2529,9 @@
       <c r="V18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="39"/>
+      <c r="W18" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
       <c r="Z18" s="39"/>
@@ -2529,7 +2553,7 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
@@ -2583,7 +2607,9 @@
       <c r="V19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W19" s="39"/>
+      <c r="W19" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
       <c r="Z19" s="39"/>
@@ -2609,7 +2635,7 @@
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>20</v>
@@ -2659,7 +2685,9 @@
       <c r="V20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W20" s="39"/>
+      <c r="W20" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
       <c r="Z20" s="39"/>
@@ -2681,7 +2709,7 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
@@ -2735,7 +2763,9 @@
       <c r="V21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W21" s="39"/>
+      <c r="W21" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
       <c r="Z21" s="39"/>
@@ -2761,7 +2791,7 @@
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2811,7 +2841,9 @@
       <c r="V22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W22" s="39"/>
+      <c r="W22" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
       <c r="Z22" s="39"/>
@@ -2837,7 +2869,7 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>21</v>
@@ -2887,7 +2919,9 @@
       <c r="V23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W23" s="39"/>
+      <c r="W23" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
       <c r="Z23" s="39"/>
@@ -2913,7 +2947,7 @@
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -2963,7 +2997,9 @@
       <c r="V24" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="39"/>
+      <c r="W24" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X24" s="39"/>
       <c r="Y24" s="39"/>
       <c r="Z24" s="39"/>
@@ -2989,7 +3025,7 @@
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -3039,7 +3075,9 @@
       <c r="V25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="39"/>
+      <c r="W25" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
       <c r="Z25" s="39"/>
@@ -3061,7 +3099,7 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
@@ -3115,7 +3153,9 @@
       <c r="V26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W26" s="39"/>
+      <c r="W26" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
@@ -3141,7 +3181,7 @@
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>21</v>
@@ -3191,7 +3231,9 @@
       <c r="V27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W27" s="39"/>
+      <c r="W27" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
       <c r="Z27" s="39"/>
@@ -3213,7 +3255,7 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
@@ -3267,7 +3309,9 @@
       <c r="V28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W28" s="39"/>
+      <c r="W28" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
       <c r="Z28" s="39"/>
@@ -3293,7 +3337,7 @@
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -3343,7 +3387,9 @@
       <c r="V29" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W29" s="39"/>
+      <c r="W29" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X29" s="39"/>
       <c r="Y29" s="39"/>
       <c r="Z29" s="39"/>
@@ -3365,7 +3411,7 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
@@ -3419,7 +3465,9 @@
       <c r="V30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W30" s="39"/>
+      <c r="W30" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
       <c r="Z30" s="39"/>
@@ -3441,7 +3489,7 @@
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
@@ -3495,7 +3543,9 @@
       <c r="V31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W31" s="39"/>
+      <c r="W31" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X31" s="39"/>
       <c r="Y31" s="39"/>
       <c r="Z31" s="39"/>
@@ -3517,7 +3567,7 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
@@ -3571,7 +3621,9 @@
       <c r="V32" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W32" s="39"/>
+      <c r="W32" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X32" s="39"/>
       <c r="Y32" s="39"/>
       <c r="Z32" s="39"/>
@@ -3597,7 +3649,7 @@
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>21</v>
@@ -3647,7 +3699,9 @@
       <c r="V33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W33" s="39"/>
+      <c r="W33" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X33" s="39"/>
       <c r="Y33" s="39"/>
       <c r="Z33" s="39"/>
@@ -3673,7 +3727,7 @@
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>21</v>
@@ -3723,7 +3777,9 @@
       <c r="V34" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W34" s="39"/>
+      <c r="W34" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X34" s="39"/>
       <c r="Y34" s="39"/>
       <c r="Z34" s="39"/>
@@ -3749,7 +3805,7 @@
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3799,7 +3855,9 @@
       <c r="V35" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="39"/>
+      <c r="W35" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X35" s="39"/>
       <c r="Y35" s="39"/>
       <c r="Z35" s="39"/>
@@ -3825,7 +3883,7 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>20</v>
@@ -3875,7 +3933,9 @@
       <c r="V36" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="39"/>
+      <c r="W36" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X36" s="39"/>
       <c r="Y36" s="39"/>
       <c r="Z36" s="39"/>
@@ -3897,7 +3957,7 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
@@ -3951,7 +4011,9 @@
       <c r="V37" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W37" s="39"/>
+      <c r="W37" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X37" s="39"/>
       <c r="Y37" s="39"/>
       <c r="Z37" s="39"/>
@@ -3973,7 +4035,7 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
@@ -4027,7 +4089,9 @@
       <c r="V38" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W38" s="39"/>
+      <c r="W38" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X38" s="39"/>
       <c r="Y38" s="39"/>
       <c r="Z38" s="39"/>
@@ -4053,7 +4117,7 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>20</v>
@@ -4103,7 +4167,9 @@
       <c r="V39" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W39" s="39"/>
+      <c r="W39" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X39" s="39"/>
       <c r="Y39" s="39"/>
       <c r="Z39" s="39"/>
@@ -4125,7 +4191,7 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
@@ -4179,7 +4245,9 @@
       <c r="V40" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W40" s="39"/>
+      <c r="W40" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X40" s="39"/>
       <c r="Y40" s="39"/>
       <c r="Z40" s="39"/>
@@ -4205,7 +4273,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -4255,7 +4323,9 @@
       <c r="V41" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="39"/>
+      <c r="W41" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X41" s="39"/>
       <c r="Y41" s="39"/>
       <c r="Z41" s="39"/>
@@ -4281,7 +4351,7 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>21</v>
@@ -4331,7 +4401,9 @@
       <c r="V42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W42" s="39"/>
+      <c r="W42" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X42" s="39"/>
       <c r="Y42" s="39"/>
       <c r="Z42" s="39"/>
@@ -4357,7 +4429,7 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>21</v>
@@ -4407,7 +4479,9 @@
       <c r="V43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W43" s="39"/>
+      <c r="W43" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X43" s="39"/>
       <c r="Y43" s="39"/>
       <c r="Z43" s="39"/>
@@ -4433,7 +4507,7 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -4483,7 +4557,9 @@
       <c r="V44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W44" s="39"/>
+      <c r="W44" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X44" s="39"/>
       <c r="Y44" s="39"/>
       <c r="Z44" s="39"/>
@@ -4505,7 +4581,7 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
@@ -4559,7 +4635,9 @@
       <c r="V45" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W45" s="39"/>
+      <c r="W45" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X45" s="39"/>
       <c r="Y45" s="39"/>
       <c r="Z45" s="39"/>
@@ -4581,7 +4659,7 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
@@ -4635,7 +4713,9 @@
       <c r="V46" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W46" s="39"/>
+      <c r="W46" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X46" s="39"/>
       <c r="Y46" s="39"/>
       <c r="Z46" s="39"/>
@@ -4657,7 +4737,7 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
@@ -4711,7 +4791,9 @@
       <c r="V47" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W47" s="39"/>
+      <c r="W47" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X47" s="39"/>
       <c r="Y47" s="39"/>
       <c r="Z47" s="39"/>
@@ -4733,7 +4815,7 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
@@ -4787,7 +4869,9 @@
       <c r="V48" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W48" s="39"/>
+      <c r="W48" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X48" s="39"/>
       <c r="Y48" s="39"/>
       <c r="Z48" s="39"/>
@@ -4809,7 +4893,7 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
@@ -4863,7 +4947,9 @@
       <c r="V49" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W49" s="39"/>
+      <c r="W49" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X49" s="39"/>
       <c r="Y49" s="39"/>
       <c r="Z49" s="39"/>
@@ -4889,7 +4975,7 @@
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>21</v>
@@ -4939,7 +5025,9 @@
       <c r="V50" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W50" s="39"/>
+      <c r="W50" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X50" s="39"/>
       <c r="Y50" s="39"/>
       <c r="Z50" s="39"/>
@@ -4965,7 +5053,7 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>21</v>
@@ -5015,7 +5103,9 @@
       <c r="V51" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W51" s="39"/>
+      <c r="W51" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X51" s="39"/>
       <c r="Y51" s="39"/>
       <c r="Z51" s="39"/>
@@ -5041,7 +5131,7 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>21</v>
@@ -5091,7 +5181,9 @@
       <c r="V52" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W52" s="39"/>
+      <c r="W52" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X52" s="39"/>
       <c r="Y52" s="39"/>
       <c r="Z52" s="39"/>
@@ -5113,7 +5205,7 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
@@ -5167,7 +5259,9 @@
       <c r="V53" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W53" s="39"/>
+      <c r="W53" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X53" s="39"/>
       <c r="Y53" s="39"/>
       <c r="Z53" s="39"/>
@@ -5189,7 +5283,7 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
@@ -5243,7 +5337,9 @@
       <c r="V54" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W54" s="39"/>
+      <c r="W54" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X54" s="39"/>
       <c r="Y54" s="39"/>
       <c r="Z54" s="39"/>
@@ -5265,7 +5361,7 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
@@ -5319,7 +5415,9 @@
       <c r="V55" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W55" s="39"/>
+      <c r="W55" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X55" s="39"/>
       <c r="Y55" s="39"/>
       <c r="Z55" s="39"/>
@@ -5345,7 +5443,7 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -5395,7 +5493,9 @@
       <c r="V56" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W56" s="39"/>
+      <c r="W56" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X56" s="39"/>
       <c r="Y56" s="39"/>
       <c r="Z56" s="39"/>
@@ -5421,7 +5521,7 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>21</v>
@@ -5471,7 +5571,9 @@
       <c r="V57" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W57" s="39"/>
+      <c r="W57" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X57" s="39"/>
       <c r="Y57" s="39"/>
       <c r="Z57" s="39"/>
@@ -5493,7 +5595,7 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
@@ -5547,7 +5649,9 @@
       <c r="V58" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W58" s="39"/>
+      <c r="W58" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X58" s="39"/>
       <c r="Y58" s="39"/>
       <c r="Z58" s="39"/>
@@ -5573,7 +5677,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>20</v>
@@ -5623,7 +5727,9 @@
       <c r="V59" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W59" s="39"/>
+      <c r="W59" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X59" s="39"/>
       <c r="Y59" s="39"/>
       <c r="Z59" s="39"/>
@@ -5649,7 +5755,7 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -5699,7 +5805,9 @@
       <c r="V60" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W60" s="39"/>
+      <c r="W60" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X60" s="39"/>
       <c r="Y60" s="39"/>
       <c r="Z60" s="39"/>
@@ -5725,7 +5833,7 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -5775,7 +5883,9 @@
       <c r="V61" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W61" s="39"/>
+      <c r="W61" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X61" s="39"/>
       <c r="Y61" s="39"/>
       <c r="Z61" s="39"/>
@@ -5801,7 +5911,7 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -5851,7 +5961,9 @@
       <c r="V62" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W62" s="39"/>
+      <c r="W62" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X62" s="39"/>
       <c r="Y62" s="39"/>
       <c r="Z62" s="39"/>
@@ -5873,7 +5985,7 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
@@ -5927,7 +6039,9 @@
       <c r="V63" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W63" s="39"/>
+      <c r="W63" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X63" s="39"/>
       <c r="Y63" s="39"/>
       <c r="Z63" s="39"/>
@@ -5949,7 +6063,7 @@
       </c>
       <c r="E64" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
@@ -6003,7 +6117,9 @@
       <c r="V64" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W64" s="39"/>
+      <c r="W64" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X64" s="39"/>
       <c r="Y64" s="39"/>
       <c r="Z64" s="39"/>
@@ -6029,7 +6145,7 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -6079,7 +6195,9 @@
       <c r="V65" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W65" s="39"/>
+      <c r="W65" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X65" s="39"/>
       <c r="Y65" s="39"/>
       <c r="Z65" s="39"/>
@@ -6101,7 +6219,7 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
@@ -6155,7 +6273,9 @@
       <c r="V66" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W66" s="39"/>
+      <c r="W66" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X66" s="39"/>
       <c r="Y66" s="39"/>
       <c r="Z66" s="39"/>
@@ -6177,7 +6297,7 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
@@ -6231,7 +6351,9 @@
       <c r="V67" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W67" s="39"/>
+      <c r="W67" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X67" s="39"/>
       <c r="Y67" s="39"/>
       <c r="Z67" s="39"/>
@@ -6253,7 +6375,7 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
@@ -6307,7 +6429,9 @@
       <c r="V68" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W68" s="39"/>
+      <c r="W68" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X68" s="39"/>
       <c r="Y68" s="39"/>
       <c r="Z68" s="39"/>
@@ -6329,7 +6453,7 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
@@ -6383,7 +6507,9 @@
       <c r="V69" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W69" s="39"/>
+      <c r="W69" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X69" s="39"/>
       <c r="Y69" s="39"/>
       <c r="Z69" s="39"/>
@@ -6409,7 +6535,7 @@
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>20</v>
@@ -6459,7 +6585,9 @@
       <c r="V70" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W70" s="39"/>
+      <c r="W70" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X70" s="39"/>
       <c r="Y70" s="39"/>
       <c r="Z70" s="39"/>
@@ -6485,7 +6613,7 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -6535,7 +6663,9 @@
       <c r="V71" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W71" s="39"/>
+      <c r="W71" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X71" s="39"/>
       <c r="Y71" s="39"/>
       <c r="Z71" s="39"/>
@@ -6557,7 +6687,7 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
@@ -6611,7 +6741,9 @@
       <c r="V72" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W72" s="39"/>
+      <c r="W72" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X72" s="39"/>
       <c r="Y72" s="39"/>
       <c r="Z72" s="39"/>
@@ -6637,7 +6769,7 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
@@ -6687,7 +6819,9 @@
       <c r="V73" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W73" s="39"/>
+      <c r="W73" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X73" s="39"/>
       <c r="Y73" s="39"/>
       <c r="Z73" s="39"/>
@@ -6709,7 +6843,7 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
@@ -6763,7 +6897,9 @@
       <c r="V74" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W74" s="39"/>
+      <c r="W74" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X74" s="39"/>
       <c r="Y74" s="39"/>
       <c r="Z74" s="39"/>
@@ -6789,7 +6925,7 @@
       </c>
       <c r="F75" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -6839,7 +6975,9 @@
       <c r="V75" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W75" s="39"/>
+      <c r="W75" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X75" s="39"/>
       <c r="Y75" s="39"/>
       <c r="Z75" s="39"/>
@@ -6865,7 +7003,7 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>20</v>
@@ -6915,7 +7053,9 @@
       <c r="V76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W76" s="39"/>
+      <c r="W76" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X76" s="39"/>
       <c r="Y76" s="39"/>
       <c r="Z76" s="39"/>
@@ -6941,7 +7081,7 @@
       </c>
       <c r="F77" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -6991,7 +7131,9 @@
       <c r="V77" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="W77" s="39"/>
+      <c r="W77" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X77" s="39"/>
       <c r="Y77" s="39"/>
       <c r="Z77" s="39"/>
@@ -7017,7 +7159,7 @@
       </c>
       <c r="F78" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -7067,7 +7209,9 @@
       <c r="V78" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W78" s="39"/>
+      <c r="W78" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X78" s="39"/>
       <c r="Y78" s="39"/>
       <c r="Z78" s="39"/>
@@ -7093,7 +7237,7 @@
       </c>
       <c r="F79" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>21</v>
@@ -7143,7 +7287,9 @@
       <c r="V79" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W79" s="39"/>
+      <c r="W79" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="X79" s="39"/>
       <c r="Y79" s="39"/>
       <c r="Z79" s="39"/>
@@ -7165,7 +7311,7 @@
       </c>
       <c r="E80" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F80" s="36">
         <f t="shared" si="2"/>
@@ -7219,7 +7365,9 @@
       <c r="V80" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="W80" s="39"/>
+      <c r="W80" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="X80" s="39"/>
       <c r="Y80" s="39"/>
       <c r="Z80" s="39"/>

--- a/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="168">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1674,8 +1674,12 @@
       <c r="W7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
+      <c r="X7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
     </row>
@@ -1699,7 +1703,7 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>20</v>
@@ -1752,9 +1756,13 @@
       <c r="W8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
+      <c r="X8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="38"/>
       <c r="AA8" s="39"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1777,7 +1785,7 @@
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>20</v>
@@ -1830,8 +1838,12 @@
       <c r="W9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
+      <c r="X9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z9" s="39"/>
       <c r="AA9" s="39"/>
     </row>
@@ -1851,11 +1863,11 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>20</v>
@@ -1908,8 +1920,12 @@
       <c r="W10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
+      <c r="X10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z10" s="39"/>
       <c r="AA10" s="39"/>
     </row>
@@ -1933,7 +1949,7 @@
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>20</v>
@@ -1986,8 +2002,12 @@
       <c r="W11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
+      <c r="X11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z11" s="39"/>
       <c r="AA11" s="39"/>
     </row>
@@ -2007,11 +2027,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>21</v>
@@ -2064,8 +2084,12 @@
       <c r="W12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
+      <c r="X12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z12" s="39"/>
       <c r="AA12" s="39"/>
     </row>
@@ -2089,7 +2113,7 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>21</v>
@@ -2142,8 +2166,12 @@
       <c r="W13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
+      <c r="X13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z13" s="39"/>
       <c r="AA13" s="39"/>
     </row>
@@ -2167,7 +2195,7 @@
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>20</v>
@@ -2220,8 +2248,12 @@
       <c r="W14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
+      <c r="X14" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z14" s="39"/>
       <c r="AA14" s="39"/>
     </row>
@@ -2245,7 +2277,7 @@
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>20</v>
@@ -2298,8 +2330,12 @@
       <c r="W15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
+      <c r="X15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z15" s="39"/>
       <c r="AA15" s="39"/>
     </row>
@@ -2323,7 +2359,7 @@
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>21</v>
@@ -2376,8 +2412,12 @@
       <c r="W16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
+      <c r="X16" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z16" s="39"/>
       <c r="AA16" s="39"/>
     </row>
@@ -2401,7 +2441,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>20</v>
@@ -2454,8 +2494,12 @@
       <c r="W17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
+      <c r="X17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z17" s="39"/>
       <c r="AA17" s="39"/>
     </row>
@@ -2475,11 +2519,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>20</v>
@@ -2532,8 +2576,12 @@
       <c r="W18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
+      <c r="X18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z18" s="39"/>
       <c r="AA18" s="39"/>
     </row>
@@ -2553,11 +2601,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>21</v>
@@ -2610,8 +2658,12 @@
       <c r="W19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
+      <c r="X19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z19" s="39"/>
       <c r="AA19" s="39"/>
     </row>
@@ -2635,7 +2687,7 @@
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>20</v>
@@ -2688,8 +2740,12 @@
       <c r="W20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
+      <c r="X20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z20" s="39"/>
       <c r="AA20" s="39"/>
     </row>
@@ -2713,7 +2769,7 @@
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>20</v>
@@ -2766,8 +2822,12 @@
       <c r="W21" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
+      <c r="X21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z21" s="39"/>
       <c r="AA21" s="39"/>
     </row>
@@ -2791,7 +2851,7 @@
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2844,8 +2904,12 @@
       <c r="W22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
+      <c r="X22" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y22" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z22" s="39"/>
       <c r="AA22" s="39"/>
     </row>
@@ -2869,7 +2933,7 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>21</v>
@@ -2922,8 +2986,12 @@
       <c r="W23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
+      <c r="X23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z23" s="39"/>
       <c r="AA23" s="39"/>
     </row>
@@ -2947,7 +3015,7 @@
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -3000,8 +3068,12 @@
       <c r="W24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
+      <c r="X24" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
     </row>
@@ -3021,11 +3093,11 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -3078,8 +3150,12 @@
       <c r="W25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
+      <c r="X25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
     </row>
@@ -3099,11 +3175,11 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -3156,8 +3232,12 @@
       <c r="W26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
+      <c r="X26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y26" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z26" s="39"/>
       <c r="AA26" s="39"/>
     </row>
@@ -3177,11 +3257,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>21</v>
@@ -3234,8 +3314,12 @@
       <c r="W27" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
+      <c r="X27" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z27" s="39"/>
       <c r="AA27" s="39"/>
     </row>
@@ -3259,7 +3343,7 @@
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>21</v>
@@ -3312,8 +3396,12 @@
       <c r="W28" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
+      <c r="X28" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y28" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z28" s="39"/>
       <c r="AA28" s="39"/>
     </row>
@@ -3333,11 +3421,11 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>20</v>
@@ -3390,8 +3478,12 @@
       <c r="W29" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
+      <c r="X29" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z29" s="39"/>
       <c r="AA29" s="39"/>
     </row>
@@ -3415,7 +3507,7 @@
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>21</v>
@@ -3468,8 +3560,12 @@
       <c r="W30" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
+      <c r="X30" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y30" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z30" s="39"/>
       <c r="AA30" s="39"/>
     </row>
@@ -3493,7 +3589,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>20</v>
@@ -3546,8 +3642,12 @@
       <c r="W31" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
+      <c r="X31" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z31" s="39"/>
       <c r="AA31" s="39"/>
     </row>
@@ -3571,7 +3671,7 @@
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>21</v>
@@ -3624,8 +3724,12 @@
       <c r="W32" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
+      <c r="X32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z32" s="39"/>
       <c r="AA32" s="39"/>
     </row>
@@ -3649,7 +3753,7 @@
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>21</v>
@@ -3702,8 +3806,12 @@
       <c r="W33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
+      <c r="X33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z33" s="39"/>
       <c r="AA33" s="39"/>
     </row>
@@ -3723,11 +3831,11 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>21</v>
@@ -3780,8 +3888,12 @@
       <c r="W34" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
+      <c r="X34" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y34" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z34" s="39"/>
       <c r="AA34" s="39"/>
     </row>
@@ -3801,11 +3913,11 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35" s="37" t="s">
         <v>20</v>
@@ -3858,8 +3970,12 @@
       <c r="W35" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X35" s="39"/>
-      <c r="Y35" s="39"/>
+      <c r="X35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y35" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z35" s="39"/>
       <c r="AA35" s="39"/>
     </row>
@@ -3879,11 +3995,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>20</v>
@@ -3936,8 +4052,12 @@
       <c r="W36" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
+      <c r="X36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z36" s="39"/>
       <c r="AA36" s="39"/>
     </row>
@@ -3957,11 +4077,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -4014,8 +4134,12 @@
       <c r="W37" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="39"/>
+      <c r="X37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y37" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z37" s="39"/>
       <c r="AA37" s="39"/>
     </row>
@@ -4035,11 +4159,11 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
@@ -4092,8 +4216,12 @@
       <c r="W38" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X38" s="39"/>
-      <c r="Y38" s="39"/>
+      <c r="X38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y38" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z38" s="39"/>
       <c r="AA38" s="39"/>
     </row>
@@ -4117,7 +4245,7 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>20</v>
@@ -4170,8 +4298,12 @@
       <c r="W39" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
+      <c r="X39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y39" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z39" s="39"/>
       <c r="AA39" s="39"/>
     </row>
@@ -4191,11 +4323,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -4246,10 +4378,14 @@
         <v>21</v>
       </c>
       <c r="W40" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
+        <v>20</v>
+      </c>
+      <c r="X40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
     </row>
@@ -4273,7 +4409,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -4326,8 +4462,12 @@
       <c r="W41" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
+      <c r="X41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y41" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z41" s="39"/>
       <c r="AA41" s="39"/>
     </row>
@@ -4347,11 +4487,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>21</v>
@@ -4404,8 +4544,12 @@
       <c r="W42" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X42" s="39"/>
-      <c r="Y42" s="39"/>
+      <c r="X42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y42" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z42" s="39"/>
       <c r="AA42" s="39"/>
     </row>
@@ -4429,7 +4573,7 @@
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>21</v>
@@ -4482,8 +4626,12 @@
       <c r="W43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X43" s="39"/>
-      <c r="Y43" s="39"/>
+      <c r="X43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z43" s="39"/>
       <c r="AA43" s="39"/>
     </row>
@@ -4503,11 +4651,11 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -4560,8 +4708,12 @@
       <c r="W44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X44" s="39"/>
-      <c r="Y44" s="39"/>
+      <c r="X44" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y44" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z44" s="39"/>
       <c r="AA44" s="39"/>
     </row>
@@ -4581,11 +4733,11 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>20</v>
@@ -4638,8 +4790,12 @@
       <c r="W45" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
+      <c r="X45" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y45" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z45" s="39"/>
       <c r="AA45" s="39"/>
     </row>
@@ -4663,7 +4819,7 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>20</v>
@@ -4716,8 +4872,12 @@
       <c r="W46" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
+      <c r="X46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y46" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z46" s="39"/>
       <c r="AA46" s="39"/>
     </row>
@@ -4737,11 +4897,11 @@
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>20</v>
@@ -4794,8 +4954,12 @@
       <c r="W47" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
+      <c r="X47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y47" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z47" s="39"/>
       <c r="AA47" s="39"/>
     </row>
@@ -4819,7 +4983,7 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -4872,8 +5036,12 @@
       <c r="W48" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
+      <c r="X48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y48" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z48" s="39"/>
       <c r="AA48" s="39"/>
     </row>
@@ -4897,7 +5065,7 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -4950,8 +5118,12 @@
       <c r="W49" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X49" s="39"/>
-      <c r="Y49" s="39"/>
+      <c r="X49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y49" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z49" s="39"/>
       <c r="AA49" s="39"/>
     </row>
@@ -4971,11 +5143,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>21</v>
@@ -5028,8 +5200,12 @@
       <c r="W50" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X50" s="39"/>
-      <c r="Y50" s="39"/>
+      <c r="X50" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y50" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z50" s="39"/>
       <c r="AA50" s="39"/>
     </row>
@@ -5049,11 +5225,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>21</v>
@@ -5106,8 +5282,12 @@
       <c r="W51" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X51" s="39"/>
-      <c r="Y51" s="39"/>
+      <c r="X51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y51" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z51" s="39"/>
       <c r="AA51" s="39"/>
     </row>
@@ -5127,11 +5307,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>21</v>
@@ -5184,8 +5364,12 @@
       <c r="W52" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X52" s="39"/>
-      <c r="Y52" s="39"/>
+      <c r="X52" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y52" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z52" s="39"/>
       <c r="AA52" s="39"/>
     </row>
@@ -5205,11 +5389,11 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>20</v>
@@ -5262,8 +5446,12 @@
       <c r="W53" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X53" s="39"/>
-      <c r="Y53" s="39"/>
+      <c r="X53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y53" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z53" s="39"/>
       <c r="AA53" s="39"/>
     </row>
@@ -5283,11 +5471,11 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>21</v>
@@ -5340,8 +5528,12 @@
       <c r="W54" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="39"/>
+      <c r="X54" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y54" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z54" s="39"/>
       <c r="AA54" s="39"/>
     </row>
@@ -5365,7 +5557,7 @@
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>20</v>
@@ -5418,8 +5610,12 @@
       <c r="W55" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
+      <c r="X55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y55" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z55" s="39"/>
       <c r="AA55" s="39"/>
     </row>
@@ -5443,7 +5639,7 @@
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>20</v>
@@ -5496,8 +5692,12 @@
       <c r="W56" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
+      <c r="X56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z56" s="39"/>
       <c r="AA56" s="39"/>
     </row>
@@ -5521,7 +5721,7 @@
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>21</v>
@@ -5574,8 +5774,12 @@
       <c r="W57" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
+      <c r="X57" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y57" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z57" s="39"/>
       <c r="AA57" s="39"/>
     </row>
@@ -5595,11 +5799,11 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G58" s="37" t="s">
         <v>20</v>
@@ -5652,8 +5856,12 @@
       <c r="W58" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
+      <c r="X58" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y58" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z58" s="39"/>
       <c r="AA58" s="39"/>
     </row>
@@ -5677,7 +5885,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>20</v>
@@ -5730,8 +5938,12 @@
       <c r="W59" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
+      <c r="X59" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z59" s="39"/>
       <c r="AA59" s="39"/>
     </row>
@@ -5755,7 +5967,7 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -5808,8 +6020,12 @@
       <c r="W60" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
+      <c r="X60" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z60" s="39"/>
       <c r="AA60" s="39"/>
     </row>
@@ -5833,7 +6049,7 @@
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G61" s="37" t="s">
         <v>20</v>
@@ -5886,8 +6102,12 @@
       <c r="W61" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
+      <c r="X61" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y61" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z61" s="39"/>
       <c r="AA61" s="39"/>
     </row>
@@ -5911,7 +6131,7 @@
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>20</v>
@@ -5964,8 +6184,12 @@
       <c r="W62" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
+      <c r="X62" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y62" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z62" s="39"/>
       <c r="AA62" s="39"/>
     </row>
@@ -5985,11 +6209,11 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -6042,8 +6266,12 @@
       <c r="W63" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
+      <c r="X63" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y63" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z63" s="39"/>
       <c r="AA63" s="39"/>
     </row>
@@ -6067,7 +6295,7 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>20</v>
@@ -6120,8 +6348,12 @@
       <c r="W64" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X64" s="39"/>
-      <c r="Y64" s="39"/>
+      <c r="X64" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y64" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z64" s="39"/>
       <c r="AA64" s="39"/>
     </row>
@@ -6145,7 +6377,7 @@
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>20</v>
@@ -6198,8 +6430,12 @@
       <c r="W65" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X65" s="39"/>
-      <c r="Y65" s="39"/>
+      <c r="X65" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z65" s="39"/>
       <c r="AA65" s="39"/>
     </row>
@@ -6219,11 +6455,11 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>20</v>
@@ -6276,8 +6512,12 @@
       <c r="W66" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X66" s="39"/>
-      <c r="Y66" s="39"/>
+      <c r="X66" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y66" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z66" s="39"/>
       <c r="AA66" s="39"/>
     </row>
@@ -6301,7 +6541,7 @@
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G67" s="37" t="s">
         <v>20</v>
@@ -6354,8 +6594,12 @@
       <c r="W67" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
+      <c r="X67" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y67" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z67" s="39"/>
       <c r="AA67" s="39"/>
     </row>
@@ -6379,7 +6623,7 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>21</v>
@@ -6432,8 +6676,12 @@
       <c r="W68" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
+      <c r="X68" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y68" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z68" s="39"/>
       <c r="AA68" s="39"/>
     </row>
@@ -6453,11 +6701,11 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G69" s="37" t="s">
         <v>20</v>
@@ -6510,8 +6758,12 @@
       <c r="W69" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
+      <c r="X69" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y69" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z69" s="39"/>
       <c r="AA69" s="39"/>
     </row>
@@ -6531,11 +6783,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>20</v>
@@ -6588,8 +6840,12 @@
       <c r="W70" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
+      <c r="X70" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z70" s="39"/>
       <c r="AA70" s="39"/>
     </row>
@@ -6613,7 +6869,7 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -6666,8 +6922,12 @@
       <c r="W71" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
+      <c r="X71" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z71" s="39"/>
       <c r="AA71" s="39"/>
     </row>
@@ -6687,11 +6947,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>21</v>
@@ -6744,8 +7004,12 @@
       <c r="W72" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
+      <c r="X72" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y72" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z72" s="39"/>
       <c r="AA72" s="39"/>
     </row>
@@ -6769,7 +7033,7 @@
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G73" s="37" t="s">
         <v>20</v>
@@ -6822,8 +7086,12 @@
       <c r="W73" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
+      <c r="X73" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z73" s="39"/>
       <c r="AA73" s="39"/>
     </row>
@@ -6847,7 +7115,7 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>20</v>
@@ -6900,8 +7168,12 @@
       <c r="W74" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
+      <c r="X74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y74" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z74" s="39"/>
       <c r="AA74" s="39"/>
     </row>
@@ -6921,11 +7193,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>20</v>
@@ -6978,8 +7250,12 @@
       <c r="W75" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
+      <c r="X75" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y75" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z75" s="39"/>
       <c r="AA75" s="39"/>
     </row>
@@ -7003,7 +7279,7 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>20</v>
@@ -7056,8 +7332,12 @@
       <c r="W76" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X76" s="39"/>
-      <c r="Y76" s="39"/>
+      <c r="X76" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y76" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z76" s="39"/>
       <c r="AA76" s="39"/>
     </row>
@@ -7077,11 +7357,11 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -7134,8 +7414,12 @@
       <c r="W77" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X77" s="39"/>
-      <c r="Y77" s="39"/>
+      <c r="X77" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y77" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z77" s="39"/>
       <c r="AA77" s="39"/>
     </row>
@@ -7155,11 +7439,11 @@
       </c>
       <c r="E78" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -7212,8 +7496,12 @@
       <c r="W78" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
+      <c r="X78" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y78" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z78" s="39"/>
       <c r="AA78" s="39"/>
     </row>
@@ -7233,11 +7521,11 @@
       </c>
       <c r="E79" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F79" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>21</v>
@@ -7290,8 +7578,12 @@
       <c r="W79" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X79" s="39"/>
-      <c r="Y79" s="39"/>
+      <c r="X79" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y79" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="Z79" s="39"/>
       <c r="AA79" s="39"/>
     </row>
@@ -7311,11 +7603,11 @@
       </c>
       <c r="E80" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F80" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>21</v>
@@ -7368,8 +7660,12 @@
       <c r="W80" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="X80" s="39"/>
-      <c r="Y80" s="39"/>
+      <c r="X80" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y80" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="Z80" s="39"/>
       <c r="AA80" s="39"/>
     </row>

--- a/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (G) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="168">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1680,7 +1680,9 @@
       <c r="Y7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="32"/>
+      <c r="Z7" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="AA7" s="32"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1703,7 +1705,7 @@
       </c>
       <c r="F8" s="36">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>20</v>
@@ -1762,8 +1764,10 @@
       <c r="Y8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="39"/>
+      <c r="Z8" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="38"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="33">
@@ -1781,7 +1785,7 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="36">
         <f t="shared" si="2"/>
@@ -1844,7 +1848,9 @@
       <c r="Y9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="39"/>
+      <c r="Z9" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA9" s="39"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1867,7 +1873,7 @@
       </c>
       <c r="F10" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>20</v>
@@ -1926,7 +1932,9 @@
       <c r="Y10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="39"/>
+      <c r="Z10" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA10" s="39"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1949,7 +1957,7 @@
       </c>
       <c r="F11" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>20</v>
@@ -2008,7 +2016,9 @@
       <c r="Y11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z11" s="39"/>
+      <c r="Z11" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA11" s="39"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2031,7 +2041,7 @@
       </c>
       <c r="F12" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>21</v>
@@ -2090,7 +2100,9 @@
       <c r="Y12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z12" s="39"/>
+      <c r="Z12" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA12" s="39"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2113,7 +2125,7 @@
       </c>
       <c r="F13" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>21</v>
@@ -2172,7 +2184,9 @@
       <c r="Y13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z13" s="39"/>
+      <c r="Z13" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA13" s="39"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2191,7 +2205,7 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="2"/>
@@ -2254,7 +2268,9 @@
       <c r="Y14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="39"/>
+      <c r="Z14" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA14" s="39"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2277,7 +2293,7 @@
       </c>
       <c r="F15" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>20</v>
@@ -2336,7 +2352,9 @@
       <c r="Y15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z15" s="39"/>
+      <c r="Z15" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA15" s="39"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2359,7 +2377,7 @@
       </c>
       <c r="F16" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="37" t="s">
         <v>21</v>
@@ -2418,7 +2436,9 @@
       <c r="Y16" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z16" s="39"/>
+      <c r="Z16" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA16" s="39"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2441,7 +2461,7 @@
       </c>
       <c r="F17" s="36">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>20</v>
@@ -2500,7 +2520,9 @@
       <c r="Y17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z17" s="39"/>
+      <c r="Z17" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA17" s="39"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2519,7 +2541,7 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="2"/>
@@ -2582,7 +2604,9 @@
       <c r="Y18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z18" s="39"/>
+      <c r="Z18" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA18" s="39"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2605,7 +2629,7 @@
       </c>
       <c r="F19" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>21</v>
@@ -2664,7 +2688,9 @@
       <c r="Y19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z19" s="39"/>
+      <c r="Z19" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA19" s="39"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2687,7 +2713,7 @@
       </c>
       <c r="F20" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>20</v>
@@ -2746,7 +2772,9 @@
       <c r="Y20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z20" s="39"/>
+      <c r="Z20" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA20" s="39"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2769,7 +2797,7 @@
       </c>
       <c r="F21" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>20</v>
@@ -2828,7 +2856,9 @@
       <c r="Y21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z21" s="39"/>
+      <c r="Z21" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA21" s="39"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2851,7 +2881,7 @@
       </c>
       <c r="F22" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>20</v>
@@ -2910,7 +2940,9 @@
       <c r="Y22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z22" s="39"/>
+      <c r="Z22" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA22" s="39"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2933,7 +2965,7 @@
       </c>
       <c r="F23" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>21</v>
@@ -2992,7 +3024,9 @@
       <c r="Y23" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z23" s="39"/>
+      <c r="Z23" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA23" s="39"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3015,7 +3049,7 @@
       </c>
       <c r="F24" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="37" t="s">
         <v>20</v>
@@ -3074,7 +3108,9 @@
       <c r="Y24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z24" s="39"/>
+      <c r="Z24" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA24" s="39"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3097,7 +3133,7 @@
       </c>
       <c r="F25" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="37" t="s">
         <v>20</v>
@@ -3156,7 +3192,9 @@
       <c r="Y25" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z25" s="39"/>
+      <c r="Z25" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA25" s="39"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3179,7 +3217,7 @@
       </c>
       <c r="F26" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>20</v>
@@ -3238,7 +3276,9 @@
       <c r="Y26" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z26" s="39"/>
+      <c r="Z26" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA26" s="39"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3261,7 +3301,7 @@
       </c>
       <c r="F27" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>21</v>
@@ -3320,7 +3360,9 @@
       <c r="Y27" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z27" s="39"/>
+      <c r="Z27" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA27" s="39"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3343,7 +3385,7 @@
       </c>
       <c r="F28" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" s="37" t="s">
         <v>21</v>
@@ -3402,7 +3444,9 @@
       <c r="Y28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z28" s="39"/>
+      <c r="Z28" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA28" s="39"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3421,7 +3465,7 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="2"/>
@@ -3484,7 +3528,9 @@
       <c r="Y29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z29" s="39"/>
+      <c r="Z29" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA29" s="39"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3507,7 +3553,7 @@
       </c>
       <c r="F30" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>21</v>
@@ -3566,7 +3612,9 @@
       <c r="Y30" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z30" s="39"/>
+      <c r="Z30" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA30" s="39"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3589,7 +3637,7 @@
       </c>
       <c r="F31" s="36">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>20</v>
@@ -3648,7 +3696,9 @@
       <c r="Y31" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z31" s="39"/>
+      <c r="Z31" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA31" s="39"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3671,7 +3721,7 @@
       </c>
       <c r="F32" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>21</v>
@@ -3730,7 +3780,9 @@
       <c r="Y32" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z32" s="39"/>
+      <c r="Z32" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA32" s="39"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3753,7 +3805,7 @@
       </c>
       <c r="F33" s="36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>21</v>
@@ -3812,7 +3864,9 @@
       <c r="Y33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z33" s="39"/>
+      <c r="Z33" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA33" s="39"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3835,7 +3889,7 @@
       </c>
       <c r="F34" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>21</v>
@@ -3894,7 +3948,9 @@
       <c r="Y34" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z34" s="39"/>
+      <c r="Z34" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA34" s="39"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3913,7 +3969,7 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="36">
         <f t="shared" si="2"/>
@@ -3976,7 +4032,9 @@
       <c r="Y35" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z35" s="39"/>
+      <c r="Z35" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA35" s="39"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3999,7 +4057,7 @@
       </c>
       <c r="F36" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>20</v>
@@ -4058,7 +4116,9 @@
       <c r="Y36" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z36" s="39"/>
+      <c r="Z36" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA36" s="39"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4081,7 +4141,7 @@
       </c>
       <c r="F37" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>20</v>
@@ -4140,7 +4200,9 @@
       <c r="Y37" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z37" s="39"/>
+      <c r="Z37" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA37" s="39"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4163,7 +4225,7 @@
       </c>
       <c r="F38" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>20</v>
@@ -4222,7 +4284,9 @@
       <c r="Y38" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z38" s="39"/>
+      <c r="Z38" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA38" s="39"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4245,7 +4309,7 @@
       </c>
       <c r="F39" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>20</v>
@@ -4304,7 +4368,9 @@
       <c r="Y39" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z39" s="39"/>
+      <c r="Z39" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA39" s="39"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4327,7 +4393,7 @@
       </c>
       <c r="F40" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>20</v>
@@ -4386,7 +4452,9 @@
       <c r="Y40" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z40" s="39"/>
+      <c r="Z40" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA40" s="39"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4409,7 +4477,7 @@
       </c>
       <c r="F41" s="36">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>20</v>
@@ -4468,7 +4536,9 @@
       <c r="Y41" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z41" s="39"/>
+      <c r="Z41" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA41" s="39"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4491,7 +4561,7 @@
       </c>
       <c r="F42" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>21</v>
@@ -4550,7 +4620,9 @@
       <c r="Y42" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z42" s="39"/>
+      <c r="Z42" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA42" s="39"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4569,7 +4641,7 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="36">
         <f t="shared" si="2"/>
@@ -4632,7 +4704,9 @@
       <c r="Y43" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z43" s="39"/>
+      <c r="Z43" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA43" s="39"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4655,7 +4729,7 @@
       </c>
       <c r="F44" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>20</v>
@@ -4714,7 +4788,9 @@
       <c r="Y44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z44" s="39"/>
+      <c r="Z44" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA44" s="39"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4737,7 +4813,7 @@
       </c>
       <c r="F45" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>20</v>
@@ -4796,7 +4872,9 @@
       <c r="Y45" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z45" s="39"/>
+      <c r="Z45" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA45" s="39"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4819,7 +4897,7 @@
       </c>
       <c r="F46" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>20</v>
@@ -4878,7 +4956,9 @@
       <c r="Y46" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z46" s="39"/>
+      <c r="Z46" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA46" s="39"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4901,7 +4981,7 @@
       </c>
       <c r="F47" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>20</v>
@@ -4960,7 +5040,9 @@
       <c r="Y47" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z47" s="39"/>
+      <c r="Z47" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA47" s="39"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4983,7 +5065,7 @@
       </c>
       <c r="F48" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>20</v>
@@ -5042,7 +5124,9 @@
       <c r="Y48" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z48" s="39"/>
+      <c r="Z48" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA48" s="39"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -5065,7 +5149,7 @@
       </c>
       <c r="F49" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>20</v>
@@ -5124,7 +5208,9 @@
       <c r="Y49" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z49" s="39"/>
+      <c r="Z49" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA49" s="39"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -5147,7 +5233,7 @@
       </c>
       <c r="F50" s="36">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>21</v>
@@ -5206,7 +5292,9 @@
       <c r="Y50" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z50" s="39"/>
+      <c r="Z50" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA50" s="39"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5229,7 +5317,7 @@
       </c>
       <c r="F51" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>21</v>
@@ -5288,7 +5376,9 @@
       <c r="Y51" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z51" s="39"/>
+      <c r="Z51" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA51" s="39"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5311,7 +5401,7 @@
       </c>
       <c r="F52" s="36">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="37" t="s">
         <v>21</v>
@@ -5370,7 +5460,9 @@
       <c r="Y52" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z52" s="39"/>
+      <c r="Z52" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA52" s="39"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5393,7 +5485,7 @@
       </c>
       <c r="F53" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>20</v>
@@ -5452,7 +5544,9 @@
       <c r="Y53" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z53" s="39"/>
+      <c r="Z53" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA53" s="39"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5471,7 +5565,7 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="2"/>
@@ -5534,7 +5628,9 @@
       <c r="Y54" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z54" s="39"/>
+      <c r="Z54" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA54" s="39"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5553,7 +5649,7 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="36">
         <f t="shared" si="2"/>
@@ -5616,7 +5712,9 @@
       <c r="Y55" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z55" s="39"/>
+      <c r="Z55" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA55" s="39"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5635,7 +5733,7 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="2"/>
@@ -5698,7 +5796,9 @@
       <c r="Y56" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z56" s="39"/>
+      <c r="Z56" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA56" s="39"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5717,7 +5817,7 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="2"/>
@@ -5780,7 +5880,9 @@
       <c r="Y57" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z57" s="39"/>
+      <c r="Z57" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA57" s="39"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5799,7 +5901,7 @@
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58" s="36">
         <f t="shared" si="2"/>
@@ -5862,7 +5964,9 @@
       <c r="Y58" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z58" s="39"/>
+      <c r="Z58" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA58" s="39"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5885,7 +5989,7 @@
       </c>
       <c r="F59" s="36">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G59" s="37" t="s">
         <v>20</v>
@@ -5944,7 +6048,9 @@
       <c r="Y59" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z59" s="39"/>
+      <c r="Z59" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA59" s="39"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5967,7 +6073,7 @@
       </c>
       <c r="F60" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>20</v>
@@ -6026,7 +6132,9 @@
       <c r="Y60" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z60" s="39"/>
+      <c r="Z60" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA60" s="39"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -6045,7 +6153,7 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="36">
         <f t="shared" si="2"/>
@@ -6108,7 +6216,9 @@
       <c r="Y61" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z61" s="39"/>
+      <c r="Z61" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA61" s="39"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -6127,7 +6237,7 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" s="36">
         <f t="shared" si="2"/>
@@ -6190,7 +6300,9 @@
       <c r="Y62" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z62" s="39"/>
+      <c r="Z62" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA62" s="39"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -6213,7 +6325,7 @@
       </c>
       <c r="F63" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>20</v>
@@ -6272,7 +6384,9 @@
       <c r="Y63" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z63" s="39"/>
+      <c r="Z63" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA63" s="39"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -6295,7 +6409,7 @@
       </c>
       <c r="F64" s="36">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>20</v>
@@ -6354,7 +6468,9 @@
       <c r="Y64" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z64" s="39"/>
+      <c r="Z64" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA64" s="39"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6373,7 +6489,7 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="36">
         <f t="shared" si="2"/>
@@ -6436,7 +6552,9 @@
       <c r="Y65" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z65" s="39"/>
+      <c r="Z65" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA65" s="39"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6459,7 +6577,7 @@
       </c>
       <c r="F66" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>20</v>
@@ -6518,7 +6636,9 @@
       <c r="Y66" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z66" s="39"/>
+      <c r="Z66" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA66" s="39"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6537,7 +6657,7 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="2"/>
@@ -6600,7 +6720,9 @@
       <c r="Y67" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z67" s="39"/>
+      <c r="Z67" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA67" s="39"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6623,7 +6745,7 @@
       </c>
       <c r="F68" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>21</v>
@@ -6682,7 +6804,9 @@
       <c r="Y68" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z68" s="39"/>
+      <c r="Z68" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA68" s="39"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -6701,7 +6825,7 @@
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="36">
         <f t="shared" si="2"/>
@@ -6764,7 +6888,9 @@
       <c r="Y69" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z69" s="39"/>
+      <c r="Z69" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA69" s="39"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6783,7 +6909,7 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="2"/>
@@ -6846,7 +6972,9 @@
       <c r="Y70" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z70" s="39"/>
+      <c r="Z70" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA70" s="39"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6869,7 +6997,7 @@
       </c>
       <c r="F71" s="36">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>20</v>
@@ -6928,7 +7056,9 @@
       <c r="Y71" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z71" s="39"/>
+      <c r="Z71" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA71" s="39"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6951,7 +7081,7 @@
       </c>
       <c r="F72" s="36">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G72" s="37" t="s">
         <v>21</v>
@@ -7010,7 +7140,9 @@
       <c r="Y72" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z72" s="39"/>
+      <c r="Z72" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA72" s="39"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -7029,7 +7161,7 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="2"/>
@@ -7092,7 +7224,9 @@
       <c r="Y73" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z73" s="39"/>
+      <c r="Z73" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA73" s="39"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -7115,7 +7249,7 @@
       </c>
       <c r="F74" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G74" s="37" t="s">
         <v>20</v>
@@ -7174,7 +7308,9 @@
       <c r="Y74" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z74" s="39"/>
+      <c r="Z74" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA74" s="39"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -7193,7 +7329,7 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="36">
         <f t="shared" si="2"/>
@@ -7256,7 +7392,9 @@
       <c r="Y75" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z75" s="39"/>
+      <c r="Z75" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="AA75" s="39"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -7279,7 +7417,7 @@
       </c>
       <c r="F76" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G76" s="37" t="s">
         <v>20</v>
@@ -7338,7 +7476,9 @@
       <c r="Y76" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z76" s="39"/>
+      <c r="Z76" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA76" s="39"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -7361,7 +7501,7 @@
       </c>
       <c r="F77" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>20</v>
@@ -7420,7 +7560,9 @@
       <c r="Y77" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z77" s="39"/>
+      <c r="Z77" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA77" s="39"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -7443,7 +7585,7 @@
       </c>
       <c r="F78" s="36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G78" s="37" t="s">
         <v>20</v>
@@ -7502,7 +7644,9 @@
       <c r="Y78" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z78" s="39"/>
+      <c r="Z78" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA78" s="39"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -7525,7 +7669,7 @@
       </c>
       <c r="F79" s="36">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>21</v>
@@ -7584,7 +7728,9 @@
       <c r="Y79" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z79" s="39"/>
+      <c r="Z79" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA79" s="39"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -7607,7 +7753,7 @@
       </c>
       <c r="F80" s="36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" s="37" t="s">
         <v>21</v>
@@ -7666,7 +7812,9 @@
       <c r="Y80" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Z80" s="39"/>
+      <c r="Z80" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="AA80" s="39"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
